--- a/db/excel/sqlite-inovation-manager-ver-7.xlsx
+++ b/db/excel/sqlite-inovation-manager-ver-7.xlsx
@@ -16,7 +16,7 @@
     <sheet name="organizations" sheetId="11" state="hidden" r:id="rId7"/>
     <sheet name="job_roles" sheetId="16" state="hidden" r:id="rId8"/>
     <sheet name="staffs" sheetId="17" state="hidden" r:id="rId9"/>
-    <sheet name="user_roles" sheetId="18" state="hidden" r:id="rId10"/>
+    <sheet name="user_roles" sheetId="18" r:id="rId10"/>
     <sheet name="users" sheetId="10" r:id="rId11"/>
     <sheet name="ideas" sheetId="8" r:id="rId12"/>
     <sheet name="ideas_categories" sheetId="19" state="hidden" r:id="rId13"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7729" uniqueCount="3738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7733" uniqueCount="3740">
   <si>
     <t>table_name</t>
   </si>
@@ -11261,6 +11261,12 @@
   </si>
   <si>
     <t>Ý tưởng được đánh giá trao thưởng lúc này</t>
+  </si>
+  <si>
+    <t>count_ideas</t>
+  </si>
+  <si>
+    <t>Số lượng idea được đánh giá kỳ này</t>
   </si>
 </sst>
 </file>
@@ -12854,15 +12860,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK262"/>
+  <dimension ref="A1:AMK263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="C256" sqref="C256"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251:D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="90" customWidth="1"/>
+    <col min="1" max="1" width="34" style="90" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" style="77" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.6640625" style="105" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="131" bestFit="1" customWidth="1"/>
@@ -18764,86 +18770,84 @@
         <v>3715</v>
       </c>
       <c r="B252" s="152" t="s">
-        <v>17</v>
-      </c>
-      <c r="C252" s="153" t="s">
-        <v>3718</v>
-      </c>
-      <c r="D252" s="154" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C252" s="100" t="s">
+        <v>3739</v>
+      </c>
+      <c r="D252" s="4" t="s">
         <v>438</v>
       </c>
       <c r="E252" s="155"/>
       <c r="F252" s="155"/>
-      <c r="G252" s="6">
-        <v>251</v>
-      </c>
+      <c r="G252" s="6"/>
     </row>
     <row r="253" spans="1:7">
       <c r="A253" s="157" t="s">
         <v>3715</v>
       </c>
       <c r="B253" s="152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C253" s="153" t="s">
-        <v>3734</v>
+        <v>3718</v>
       </c>
       <c r="D253" s="154" t="s">
         <v>438</v>
       </c>
       <c r="E253" s="155"/>
       <c r="F253" s="155"/>
-      <c r="G253" s="6"/>
-    </row>
-    <row r="254" spans="1:7" ht="37">
+      <c r="G253" s="6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" s="157" t="s">
         <v>3715</v>
       </c>
       <c r="B254" s="152" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C254" s="153" t="s">
-        <v>3717</v>
+        <v>3734</v>
       </c>
       <c r="D254" s="154" t="s">
         <v>438</v>
       </c>
-      <c r="E254" s="155" t="s">
+      <c r="E254" s="155"/>
+      <c r="F254" s="155"/>
+      <c r="G254" s="6"/>
+    </row>
+    <row r="255" spans="1:7" ht="37">
+      <c r="A255" s="157" t="s">
+        <v>3715</v>
+      </c>
+      <c r="B255" s="152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C255" s="153" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D255" s="154" t="s">
+        <v>438</v>
+      </c>
+      <c r="E255" s="155" t="s">
         <v>3736</v>
       </c>
-      <c r="F254" s="155"/>
-      <c r="G254" s="6">
+      <c r="F255" s="155"/>
+      <c r="G255" s="6">
         <v>252</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="158" t="s">
-        <v>3714</v>
-      </c>
-      <c r="B255" s="159" t="s">
-        <v>477</v>
-      </c>
-      <c r="C255" s="150" t="s">
-        <v>3737</v>
-      </c>
-      <c r="D255" s="151" t="s">
-        <v>438</v>
-      </c>
-      <c r="E255" s="156"/>
-      <c r="F255" s="156"/>
-      <c r="G255" s="6">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" ht="55">
+    <row r="256" spans="1:7">
       <c r="A256" s="158" t="s">
         <v>3714</v>
       </c>
       <c r="B256" s="159" t="s">
-        <v>3716</v>
+        <v>477</v>
       </c>
       <c r="C256" s="150" t="s">
-        <v>3726</v>
+        <v>3737</v>
       </c>
       <c r="D256" s="151" t="s">
         <v>438</v>
@@ -18851,91 +18855,94 @@
       <c r="E256" s="156"/>
       <c r="F256" s="156"/>
       <c r="G256" s="6">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="37">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="55">
       <c r="A257" s="158" t="s">
         <v>3714</v>
       </c>
       <c r="B257" s="159" t="s">
-        <v>3725</v>
+        <v>3716</v>
       </c>
       <c r="C257" s="150" t="s">
-        <v>3723</v>
+        <v>3726</v>
       </c>
       <c r="D257" s="151" t="s">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="E257" s="156"/>
       <c r="F257" s="156"/>
       <c r="G257" s="6">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="37">
       <c r="A258" s="158" t="s">
         <v>3714</v>
       </c>
       <c r="B258" s="159" t="s">
-        <v>2</v>
+        <v>3725</v>
       </c>
       <c r="C258" s="150" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="D258" s="151" t="s">
-        <v>437</v>
+        <v>512</v>
       </c>
       <c r="E258" s="156"/>
       <c r="F258" s="156"/>
       <c r="G258" s="6">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="37">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" s="158" t="s">
         <v>3714</v>
       </c>
       <c r="B259" s="159" t="s">
-        <v>3728</v>
+        <v>2</v>
       </c>
       <c r="C259" s="150" t="s">
-        <v>3727</v>
+        <v>3724</v>
       </c>
       <c r="D259" s="151" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E259" s="156"/>
       <c r="F259" s="156"/>
       <c r="G259" s="6">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="37">
       <c r="A260" s="158" t="s">
         <v>3714</v>
       </c>
       <c r="B260" s="159" t="s">
-        <v>17</v>
+        <v>3728</v>
       </c>
       <c r="C260" s="150" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
       <c r="D260" s="151" t="s">
         <v>438</v>
       </c>
-      <c r="E260" s="6"/>
-      <c r="F260" s="6"/>
+      <c r="E260" s="156"/>
+      <c r="F260" s="156"/>
+      <c r="G260" s="6">
+        <v>257</v>
+      </c>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="158" t="s">
         <v>3714</v>
       </c>
       <c r="B261" s="159" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C261" s="150" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="D261" s="151" t="s">
         <v>438</v>
@@ -18943,23 +18950,39 @@
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
     </row>
-    <row r="262" spans="1:7" ht="48" customHeight="1">
+    <row r="262" spans="1:7">
       <c r="A262" s="158" t="s">
         <v>3714</v>
       </c>
       <c r="B262" s="159" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C262" s="150" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="D262" s="151" t="s">
         <v>438</v>
       </c>
-      <c r="E262" s="15" t="s">
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+    </row>
+    <row r="263" spans="1:7" ht="48" customHeight="1">
+      <c r="A263" s="158" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B263" s="159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C263" s="150" t="s">
+        <v>3731</v>
+      </c>
+      <c r="D263" s="151" t="s">
+        <v>438</v>
+      </c>
+      <c r="E263" s="15" t="s">
         <v>3733</v>
       </c>
-      <c r="F262" s="6"/>
+      <c r="F263" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G223"/>
@@ -18978,7 +19001,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19078,8 +19101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y778"/>
   <sheetViews>
-    <sheetView topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="L43" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/db/excel/sqlite-inovation-manager-ver-7.xlsx
+++ b/db/excel/sqlite-inovation-manager-ver-7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="organizations" sheetId="11" state="hidden" r:id="rId7"/>
     <sheet name="job_roles" sheetId="16" state="hidden" r:id="rId8"/>
     <sheet name="staffs" sheetId="17" state="hidden" r:id="rId9"/>
-    <sheet name="user_roles" sheetId="18" state="hidden" r:id="rId10"/>
+    <sheet name="user_roles" sheetId="18" r:id="rId10"/>
     <sheet name="users" sheetId="10" r:id="rId11"/>
     <sheet name="ideas" sheetId="8" r:id="rId12"/>
     <sheet name="ideas_categories" sheetId="19" state="hidden" r:id="rId13"/>
@@ -12892,7 +12892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+    <sheetView topLeftCell="A217" workbookViewId="0">
       <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
@@ -19064,8 +19064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -49416,7 +49416,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/db/excel/sqlite-inovation-manager-ver-7.xlsx
+++ b/db/excel/sqlite-inovation-manager-ver-7.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieu\Desktop\NODEJS\m-inovation\db\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABE362D-3DE4-4A2F-B3AF-5A8E98230D4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="500" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -33,12 +39,6 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -11236,9 +11236,6 @@
     <t>trạng thái câu lệnh thực thi hoặc ko thực thi được</t>
   </si>
   <si>
-    <t>default 1, FOREIGN KEY (idea_id) REFERENCES ideas(id),  FOREIGN KEY (review_id) REFERENCES ideas_reviews(id),  FOREIGN KEY (user_id) REFERENCES users(id)</t>
-  </si>
-  <si>
     <t>Mã user tạo kỳ đánh giá này</t>
   </si>
   <si>
@@ -11297,13 +11294,16 @@
   </si>
   <si>
     <t>Giá trị giải thưởng của ý tưởng này sau cùng</t>
+  </si>
+  <si>
+    <t>default 1, UNIQUE(idea_id, review_id), FOREIGN KEY (idea_id) REFERENCES ideas(id),  FOREIGN KEY (review_id) REFERENCES ideas_reviews(id),  FOREIGN KEY (user_id) REFERENCES users(id)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -11508,6 +11508,18 @@
       <family val="1"/>
       <charset val="163"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -11930,7 +11942,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12299,6 +12311,12 @@
     <xf numFmtId="0" fontId="21" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="185">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -12889,23 +12907,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK265"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView topLeftCell="A162" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="90" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" style="105" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="131" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="1025" width="8.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="90" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" style="105" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="131" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="1025" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" s="90" customFormat="1">
@@ -13989,7 +14007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" ht="36">
+    <row r="4" spans="1:1025" ht="37.5">
       <c r="A4" s="78" t="s">
         <v>36</v>
       </c>
@@ -14008,7 +14026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" ht="36">
+    <row r="5" spans="1:1025" ht="56.25">
       <c r="A5" s="78" t="s">
         <v>36</v>
       </c>
@@ -14027,7 +14045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="72">
+    <row r="6" spans="1:1025" ht="93.75">
       <c r="A6" s="78" t="s">
         <v>36</v>
       </c>
@@ -14046,7 +14064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" ht="36">
+    <row r="7" spans="1:1025" ht="37.5">
       <c r="A7" s="78" t="s">
         <v>36</v>
       </c>
@@ -14065,7 +14083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1025">
+    <row r="8" spans="1:1025" ht="37.5">
       <c r="A8" s="78" t="s">
         <v>36</v>
       </c>
@@ -14086,7 +14104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" ht="36">
+    <row r="9" spans="1:1025" ht="56.25">
       <c r="A9" s="79" t="s">
         <v>44</v>
       </c>
@@ -14126,7 +14144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1025">
+    <row r="11" spans="1:1025" ht="37.5">
       <c r="A11" s="79" t="s">
         <v>44</v>
       </c>
@@ -14164,7 +14182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1025">
+    <row r="13" spans="1:1025" ht="37.5">
       <c r="A13" s="79" t="s">
         <v>44</v>
       </c>
@@ -14278,7 +14296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="37.5">
       <c r="A19" s="79" t="s">
         <v>44</v>
       </c>
@@ -14297,7 +14315,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28">
+    <row r="20" spans="1:7" ht="45">
       <c r="A20" s="79" t="s">
         <v>44</v>
       </c>
@@ -14318,7 +14336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="54">
+    <row r="21" spans="1:7" ht="56.25">
       <c r="A21" s="80" t="s">
         <v>59</v>
       </c>
@@ -14377,7 +14395,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="36">
+    <row r="24" spans="1:7" ht="56.25">
       <c r="A24" s="80" t="s">
         <v>59</v>
       </c>
@@ -14396,7 +14414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="37.5">
       <c r="A25" s="80" t="s">
         <v>59</v>
       </c>
@@ -14434,7 +14452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="36">
+    <row r="27" spans="1:7" ht="37.5">
       <c r="A27" s="80" t="s">
         <v>59</v>
       </c>
@@ -14493,7 +14511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="36">
+    <row r="30" spans="1:7" ht="56.25">
       <c r="A30" s="80" t="s">
         <v>59</v>
       </c>
@@ -14626,7 +14644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28">
+    <row r="37" spans="1:7" ht="30">
       <c r="A37" s="80" t="s">
         <v>59</v>
       </c>
@@ -14647,7 +14665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="36">
+    <row r="38" spans="1:7" ht="56.25">
       <c r="A38" s="81" t="s">
         <v>82</v>
       </c>
@@ -14687,7 +14705,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="54">
+    <row r="40" spans="1:7" ht="56.25">
       <c r="A40" s="81" t="s">
         <v>82</v>
       </c>
@@ -14706,7 +14724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="36">
+    <row r="41" spans="1:7" ht="37.5">
       <c r="A41" s="81" t="s">
         <v>82</v>
       </c>
@@ -14725,7 +14743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="90">
+    <row r="42" spans="1:7" ht="112.5">
       <c r="A42" s="81" t="s">
         <v>82</v>
       </c>
@@ -14782,7 +14800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="37.5">
       <c r="A45" s="81" t="s">
         <v>82</v>
       </c>
@@ -14822,7 +14840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="54">
+    <row r="47" spans="1:7" ht="56.25">
       <c r="A47" s="78" t="s">
         <v>89</v>
       </c>
@@ -14881,7 +14899,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="37.5">
       <c r="A50" s="78" t="s">
         <v>89</v>
       </c>
@@ -15128,7 +15146,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="37.5">
       <c r="A63" s="78" t="s">
         <v>89</v>
       </c>
@@ -15147,7 +15165,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="42">
+    <row r="64" spans="1:7" ht="51">
       <c r="A64" s="78" t="s">
         <v>89</v>
       </c>
@@ -15187,7 +15205,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="36">
+    <row r="66" spans="1:7" ht="37.5">
       <c r="A66" s="109" t="s">
         <v>419</v>
       </c>
@@ -15225,7 +15243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="54">
+    <row r="68" spans="1:7" ht="75">
       <c r="A68" s="79" t="s">
         <v>111</v>
       </c>
@@ -15246,7 +15264,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="36">
+    <row r="69" spans="1:7" ht="56.25">
       <c r="A69" s="79" t="s">
         <v>111</v>
       </c>
@@ -15265,7 +15283,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="72">
+    <row r="70" spans="1:7" ht="93.75">
       <c r="A70" s="79" t="s">
         <v>111</v>
       </c>
@@ -15284,7 +15302,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="36">
+    <row r="71" spans="1:7" ht="37.5">
       <c r="A71" s="79" t="s">
         <v>111</v>
       </c>
@@ -15303,7 +15321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="36">
+    <row r="72" spans="1:7" ht="56.25">
       <c r="A72" s="79" t="s">
         <v>111</v>
       </c>
@@ -15322,7 +15340,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="72">
+    <row r="73" spans="1:7" ht="75">
       <c r="A73" s="79" t="s">
         <v>111</v>
       </c>
@@ -15341,7 +15359,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="36">
+    <row r="74" spans="1:7" ht="37.5">
       <c r="A74" s="79" t="s">
         <v>111</v>
       </c>
@@ -15476,7 +15494,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" ht="37.5">
       <c r="A81" s="79" t="s">
         <v>111</v>
       </c>
@@ -15497,7 +15515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="36">
+    <row r="82" spans="1:7" ht="37.5">
       <c r="A82" s="79" t="s">
         <v>111</v>
       </c>
@@ -15516,7 +15534,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="36">
+    <row r="83" spans="1:7" ht="56.25">
       <c r="A83" s="79" t="s">
         <v>111</v>
       </c>
@@ -15535,7 +15553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" ht="37.5">
       <c r="A84" s="79" t="s">
         <v>111</v>
       </c>
@@ -15687,7 +15705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="54">
+    <row r="92" spans="1:7" ht="56.25">
       <c r="A92" s="79" t="s">
         <v>111</v>
       </c>
@@ -15848,7 +15866,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="54">
+    <row r="101" spans="1:7" ht="56.25">
       <c r="A101" s="83" t="s">
         <v>147</v>
       </c>
@@ -15867,7 +15885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" ht="37.5">
       <c r="A102" s="83" t="s">
         <v>147</v>
       </c>
@@ -15886,7 +15904,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="54">
+    <row r="103" spans="1:7" ht="75">
       <c r="A103" s="83" t="s">
         <v>147</v>
       </c>
@@ -15905,7 +15923,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="54">
+    <row r="104" spans="1:7" ht="56.25">
       <c r="A104" s="83" t="s">
         <v>147</v>
       </c>
@@ -16000,7 +16018,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="48">
+    <row r="109" spans="1:7" ht="45">
       <c r="A109" s="83" t="s">
         <v>147</v>
       </c>
@@ -16021,7 +16039,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="54">
+    <row r="110" spans="1:7" ht="75">
       <c r="A110" s="84" t="s">
         <v>155</v>
       </c>
@@ -16061,7 +16079,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="72">
+    <row r="112" spans="1:7" ht="75">
       <c r="A112" s="84" t="s">
         <v>155</v>
       </c>
@@ -16099,7 +16117,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" ht="37.5">
       <c r="A114" s="84" t="s">
         <v>155</v>
       </c>
@@ -16327,7 +16345,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" ht="37.5">
       <c r="A126" s="84" t="s">
         <v>155</v>
       </c>
@@ -16346,7 +16364,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="28">
+    <row r="127" spans="1:7" ht="30">
       <c r="A127" s="84" t="s">
         <v>155</v>
       </c>
@@ -16367,7 +16385,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="54">
+    <row r="128" spans="1:7" ht="56.25">
       <c r="A128" s="78" t="s">
         <v>166</v>
       </c>
@@ -16388,7 +16406,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="36">
+    <row r="129" spans="1:7" ht="37.5">
       <c r="A129" s="78" t="s">
         <v>166</v>
       </c>
@@ -16445,7 +16463,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="36">
+    <row r="132" spans="1:7" ht="56.25">
       <c r="A132" s="78" t="s">
         <v>166</v>
       </c>
@@ -16540,7 +16558,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="36">
+    <row r="137" spans="1:7" ht="56.25">
       <c r="A137" s="78" t="s">
         <v>166</v>
       </c>
@@ -16559,7 +16577,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="72">
+    <row r="138" spans="1:7" ht="93.75">
       <c r="A138" s="78" t="s">
         <v>166</v>
       </c>
@@ -16711,7 +16729,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" ht="37.5">
       <c r="A146" s="78" t="s">
         <v>166</v>
       </c>
@@ -16730,7 +16748,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="42">
+    <row r="147" spans="1:7" ht="45">
       <c r="A147" s="78" t="s">
         <v>166</v>
       </c>
@@ -16751,7 +16769,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="25">
+    <row r="148" spans="1:7">
       <c r="A148" s="85" t="s">
         <v>21</v>
       </c>
@@ -16772,7 +16790,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="37">
+    <row r="149" spans="1:7" ht="38.25">
       <c r="A149" s="85" t="s">
         <v>21</v>
       </c>
@@ -16791,7 +16809,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="25">
+    <row r="150" spans="1:7">
       <c r="A150" s="85" t="s">
         <v>21</v>
       </c>
@@ -16810,7 +16828,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="25">
+    <row r="151" spans="1:7">
       <c r="A151" s="85" t="s">
         <v>21</v>
       </c>
@@ -16829,7 +16847,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="25">
+    <row r="152" spans="1:7">
       <c r="A152" s="85" t="s">
         <v>21</v>
       </c>
@@ -16848,7 +16866,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="55">
+    <row r="153" spans="1:7" ht="75.75">
       <c r="A153" s="85" t="s">
         <v>21</v>
       </c>
@@ -16867,7 +16885,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="37">
+    <row r="154" spans="1:7" ht="38.25">
       <c r="A154" s="85" t="s">
         <v>21</v>
       </c>
@@ -16886,7 +16904,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="25">
+    <row r="155" spans="1:7">
       <c r="A155" s="85" t="s">
         <v>21</v>
       </c>
@@ -16905,7 +16923,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="55">
+    <row r="156" spans="1:7" ht="57">
       <c r="A156" s="85" t="s">
         <v>21</v>
       </c>
@@ -16924,7 +16942,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="25">
+    <row r="157" spans="1:7">
       <c r="A157" s="85" t="s">
         <v>21</v>
       </c>
@@ -16943,7 +16961,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="25">
+    <row r="158" spans="1:7">
       <c r="A158" s="85" t="s">
         <v>21</v>
       </c>
@@ -16962,7 +16980,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="25">
+    <row r="159" spans="1:7" ht="38.25">
       <c r="A159" s="85" t="s">
         <v>21</v>
       </c>
@@ -16981,7 +16999,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="25">
+    <row r="160" spans="1:7">
       <c r="A160" s="85" t="s">
         <v>21</v>
       </c>
@@ -17002,7 +17020,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="25">
+    <row r="161" spans="1:7">
       <c r="A161" s="85" t="s">
         <v>21</v>
       </c>
@@ -17023,7 +17041,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="25">
+    <row r="162" spans="1:7">
       <c r="A162" s="85" t="s">
         <v>21</v>
       </c>
@@ -17042,7 +17060,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="25">
+    <row r="163" spans="1:7" ht="38.25">
       <c r="A163" s="85" t="s">
         <v>21</v>
       </c>
@@ -17063,7 +17081,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="37">
+    <row r="164" spans="1:7" ht="38.25">
       <c r="A164" s="85" t="s">
         <v>21</v>
       </c>
@@ -17082,7 +17100,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="37">
+    <row r="165" spans="1:7" ht="38.25">
       <c r="A165" s="85" t="s">
         <v>21</v>
       </c>
@@ -17101,7 +17119,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="37">
+    <row r="166" spans="1:7" ht="57">
       <c r="A166" s="85" t="s">
         <v>21</v>
       </c>
@@ -17122,7 +17140,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="25">
+    <row r="167" spans="1:7">
       <c r="A167" s="85" t="s">
         <v>21</v>
       </c>
@@ -17143,7 +17161,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="25">
+    <row r="168" spans="1:7">
       <c r="A168" s="85" t="s">
         <v>21</v>
       </c>
@@ -17164,7 +17182,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="25">
+    <row r="169" spans="1:7">
       <c r="A169" s="85" t="s">
         <v>21</v>
       </c>
@@ -17185,15 +17203,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="25">
+    <row r="170" spans="1:7">
       <c r="A170" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B170" s="144" t="s">
+      <c r="B170" s="160" t="s">
+        <v>3745</v>
+      </c>
+      <c r="C170" s="99" t="s">
         <v>3746</v>
-      </c>
-      <c r="C170" s="99" t="s">
-        <v>3747</v>
       </c>
       <c r="D170" s="145" t="s">
         <v>438</v>
@@ -17202,15 +17220,15 @@
       <c r="F170" s="5"/>
       <c r="G170" s="6"/>
     </row>
-    <row r="171" spans="1:7" ht="25">
+    <row r="171" spans="1:7">
       <c r="A171" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B171" s="144" t="s">
+      <c r="B171" s="160" t="s">
+        <v>3747</v>
+      </c>
+      <c r="C171" s="99" t="s">
         <v>3748</v>
-      </c>
-      <c r="C171" s="99" t="s">
-        <v>3749</v>
       </c>
       <c r="D171" s="145" t="s">
         <v>512</v>
@@ -17219,14 +17237,14 @@
       <c r="F171" s="5"/>
       <c r="G171" s="6"/>
     </row>
-    <row r="172" spans="1:7" ht="37">
+    <row r="172" spans="1:7" ht="38.25">
       <c r="A172" s="85" t="s">
         <v>21</v>
       </c>
       <c r="B172" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="C172" s="92" t="s">
+      <c r="C172" s="163" t="s">
         <v>34</v>
       </c>
       <c r="D172" s="4" t="s">
@@ -17238,11 +17256,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="91">
+    <row r="173" spans="1:7" ht="113.25">
       <c r="A173" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B173" s="67" t="s">
+      <c r="B173" s="162" t="s">
         <v>14</v>
       </c>
       <c r="C173" s="92" t="s">
@@ -17259,7 +17277,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="25">
+    <row r="174" spans="1:7">
       <c r="A174" s="86" t="s">
         <v>347</v>
       </c>
@@ -17280,7 +17298,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="25">
+    <row r="175" spans="1:7">
       <c r="A175" s="86" t="s">
         <v>347</v>
       </c>
@@ -17299,7 +17317,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="37">
+    <row r="176" spans="1:7" ht="38.25">
       <c r="A176" s="86" t="s">
         <v>347</v>
       </c>
@@ -17318,7 +17336,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="37">
+    <row r="177" spans="1:7" ht="38.25">
       <c r="A177" s="86" t="s">
         <v>347</v>
       </c>
@@ -17337,7 +17355,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="25">
+    <row r="178" spans="1:7">
       <c r="A178" s="86" t="s">
         <v>347</v>
       </c>
@@ -17356,7 +17374,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="25">
+    <row r="179" spans="1:7">
       <c r="A179" s="86" t="s">
         <v>347</v>
       </c>
@@ -17377,7 +17395,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="25">
+    <row r="180" spans="1:7">
       <c r="A180" s="86" t="s">
         <v>347</v>
       </c>
@@ -17398,7 +17416,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="58">
+    <row r="181" spans="1:7" ht="76.5">
       <c r="A181" s="86" t="s">
         <v>347</v>
       </c>
@@ -17421,7 +17439,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="25">
+    <row r="182" spans="1:7">
       <c r="A182" s="87" t="s">
         <v>362</v>
       </c>
@@ -17442,7 +17460,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="25">
+    <row r="183" spans="1:7">
       <c r="A183" s="87" t="s">
         <v>362</v>
       </c>
@@ -17463,7 +17481,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="37">
+    <row r="184" spans="1:7" ht="38.25">
       <c r="A184" s="87" t="s">
         <v>362</v>
       </c>
@@ -17482,7 +17500,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="44">
+    <row r="185" spans="1:7" ht="46.5">
       <c r="A185" s="87" t="s">
         <v>362</v>
       </c>
@@ -17503,7 +17521,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="25">
+    <row r="186" spans="1:7">
       <c r="A186" s="88" t="s">
         <v>384</v>
       </c>
@@ -17524,7 +17542,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="25">
+    <row r="187" spans="1:7">
       <c r="A187" s="88" t="s">
         <v>384</v>
       </c>
@@ -17545,7 +17563,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="37">
+    <row r="188" spans="1:7" ht="38.25">
       <c r="A188" s="88" t="s">
         <v>384</v>
       </c>
@@ -17564,7 +17582,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="25">
+    <row r="189" spans="1:7">
       <c r="A189" s="88" t="s">
         <v>384</v>
       </c>
@@ -17583,7 +17601,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="44">
+    <row r="190" spans="1:7" ht="46.5">
       <c r="A190" s="88" t="s">
         <v>384</v>
       </c>
@@ -17604,7 +17622,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="25">
+    <row r="191" spans="1:7">
       <c r="A191" s="89" t="s">
         <v>368</v>
       </c>
@@ -17625,7 +17643,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="25">
+    <row r="192" spans="1:7">
       <c r="A192" s="89" t="s">
         <v>368</v>
       </c>
@@ -17644,7 +17662,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="25">
+    <row r="193" spans="1:7">
       <c r="A193" s="89" t="s">
         <v>368</v>
       </c>
@@ -17665,7 +17683,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="25">
+    <row r="194" spans="1:7">
       <c r="A194" s="89" t="s">
         <v>368</v>
       </c>
@@ -17684,7 +17702,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="37">
+    <row r="195" spans="1:7" ht="38.25">
       <c r="A195" s="89" t="s">
         <v>368</v>
       </c>
@@ -17703,7 +17721,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="37">
+    <row r="196" spans="1:7" ht="38.25">
       <c r="A196" s="89" t="s">
         <v>368</v>
       </c>
@@ -17722,7 +17740,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="37">
+    <row r="197" spans="1:7" ht="38.25">
       <c r="A197" s="89" t="s">
         <v>368</v>
       </c>
@@ -17741,7 +17759,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="30">
+    <row r="198" spans="1:7" ht="31.5">
       <c r="A198" s="89" t="s">
         <v>368</v>
       </c>
@@ -17764,7 +17782,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="25">
+    <row r="199" spans="1:7">
       <c r="A199" s="88" t="s">
         <v>390</v>
       </c>
@@ -17785,7 +17803,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="37">
+    <row r="200" spans="1:7" ht="38.25">
       <c r="A200" s="88" t="s">
         <v>390</v>
       </c>
@@ -17804,7 +17822,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="25">
+    <row r="201" spans="1:7">
       <c r="A201" s="88" t="s">
         <v>390</v>
       </c>
@@ -17823,7 +17841,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="25">
+    <row r="202" spans="1:7">
       <c r="A202" s="88" t="s">
         <v>390</v>
       </c>
@@ -17842,7 +17860,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="25">
+    <row r="203" spans="1:7">
       <c r="A203" s="88" t="s">
         <v>390</v>
       </c>
@@ -17861,7 +17879,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="37">
+    <row r="204" spans="1:7" ht="38.25">
       <c r="A204" s="88" t="s">
         <v>390</v>
       </c>
@@ -17880,7 +17898,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="25">
+    <row r="205" spans="1:7">
       <c r="A205" s="88" t="s">
         <v>390</v>
       </c>
@@ -17899,7 +17917,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="25">
+    <row r="206" spans="1:7">
       <c r="A206" s="88" t="s">
         <v>390</v>
       </c>
@@ -17918,7 +17936,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="25">
+    <row r="207" spans="1:7">
       <c r="A207" s="88" t="s">
         <v>390</v>
       </c>
@@ -17936,7 +17954,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="25">
+    <row r="208" spans="1:7">
       <c r="A208" s="88" t="s">
         <v>390</v>
       </c>
@@ -17954,7 +17972,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="30">
+    <row r="209" spans="1:7" ht="31.5">
       <c r="A209" s="137" t="s">
         <v>390</v>
       </c>
@@ -18131,7 +18149,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="91">
+    <row r="218" spans="1:7" ht="94.5">
       <c r="A218" s="107" t="s">
         <v>407</v>
       </c>
@@ -18262,7 +18280,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="55" customHeight="1">
+    <row r="225" spans="1:7" ht="54.95" customHeight="1">
       <c r="A225" s="132" t="s">
         <v>407</v>
       </c>
@@ -18456,7 +18474,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" ht="38.25">
       <c r="A235" s="143" t="s">
         <v>502</v>
       </c>
@@ -18610,7 +18628,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="67.5" customHeight="1">
+    <row r="243" spans="1:7" ht="87.75" customHeight="1">
       <c r="A243" s="107" t="s">
         <v>501</v>
       </c>
@@ -18624,7 +18642,7 @@
         <v>438</v>
       </c>
       <c r="E243" s="15" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="F243" s="6"/>
       <c r="G243" s="6">
@@ -18751,7 +18769,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="37">
+    <row r="250" spans="1:7" ht="38.25">
       <c r="A250" s="157" t="s">
         <v>3711</v>
       </c>
@@ -18791,7 +18809,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="55">
+    <row r="252" spans="1:7" ht="75.75">
       <c r="A252" s="157" t="s">
         <v>3711</v>
       </c>
@@ -18810,7 +18828,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="37">
+    <row r="253" spans="1:7" ht="38.25">
       <c r="A253" s="157" t="s">
         <v>3711</v>
       </c>
@@ -18834,10 +18852,10 @@
         <v>3711</v>
       </c>
       <c r="B254" s="152" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C254" s="100" t="s">
         <v>3744</v>
-      </c>
-      <c r="C254" s="100" t="s">
-        <v>3745</v>
       </c>
       <c r="D254" s="4" t="s">
         <v>438</v>
@@ -18873,7 +18891,7 @@
         <v>16</v>
       </c>
       <c r="C256" s="153" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="D256" s="154" t="s">
         <v>438</v>
@@ -18882,7 +18900,7 @@
       <c r="F256" s="155"/>
       <c r="G256" s="6"/>
     </row>
-    <row r="257" spans="1:7" ht="37">
+    <row r="257" spans="1:7" ht="38.25">
       <c r="A257" s="157" t="s">
         <v>3711</v>
       </c>
@@ -18896,7 +18914,7 @@
         <v>438</v>
       </c>
       <c r="E257" s="155" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="F257" s="155"/>
       <c r="G257" s="6">
@@ -18911,7 +18929,7 @@
         <v>477</v>
       </c>
       <c r="C258" s="150" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="D258" s="151" t="s">
         <v>438</v>
@@ -18922,7 +18940,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="55">
+    <row r="259" spans="1:7" ht="57">
       <c r="A259" s="158" t="s">
         <v>3710</v>
       </c>
@@ -18941,11 +18959,11 @@
         <v>254</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="37">
+    <row r="260" spans="1:7" ht="38.25">
       <c r="A260" s="158" t="s">
         <v>3710</v>
       </c>
-      <c r="B260" s="159" t="s">
+      <c r="B260" s="161" t="s">
         <v>3721</v>
       </c>
       <c r="C260" s="150" t="s">
@@ -18960,7 +18978,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" ht="38.25">
       <c r="A261" s="158" t="s">
         <v>3710</v>
       </c>
@@ -18979,7 +18997,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="37">
+    <row r="262" spans="1:7" ht="57">
       <c r="A262" s="158" t="s">
         <v>3710</v>
       </c>
@@ -19030,7 +19048,7 @@
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
     </row>
-    <row r="265" spans="1:7" ht="48" customHeight="1">
+    <row r="265" spans="1:7" ht="69.75" customHeight="1">
       <c r="A265" s="158" t="s">
         <v>3710</v>
       </c>
@@ -19044,14 +19062,14 @@
         <v>438</v>
       </c>
       <c r="E265" s="15" t="s">
-        <v>3729</v>
+        <v>3749</v>
       </c>
       <c r="F265" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G225"/>
+  <autoFilter ref="A1:G225" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19061,20 +19079,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
@@ -19162,41 +19180,41 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Y778"/>
   <sheetViews>
     <sheetView topLeftCell="L10" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.33203125" customWidth="1"/>
-    <col min="12" max="12" width="25.5" customWidth="1"/>
-    <col min="13" max="13" width="34.5" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
+    <col min="13" max="13" width="34.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -20641,7 +20659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="15">
+    <row r="35" spans="1:25" ht="15.75">
       <c r="B35">
         <v>3</v>
       </c>
@@ -20679,7 +20697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15">
+    <row r="36" spans="1:25" ht="15.75">
       <c r="B36">
         <v>3</v>
       </c>
@@ -20717,7 +20735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15">
+    <row r="37" spans="1:25" ht="15.75">
       <c r="B37">
         <v>3</v>
       </c>
@@ -20755,7 +20773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="15">
+    <row r="38" spans="1:25" ht="15.75">
       <c r="B38">
         <v>3</v>
       </c>
@@ -20793,7 +20811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="15">
+    <row r="39" spans="1:25" ht="15.75">
       <c r="B39">
         <v>3</v>
       </c>
@@ -20831,7 +20849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="15">
+    <row r="40" spans="1:25" ht="15.75">
       <c r="B40">
         <v>3</v>
       </c>
@@ -20869,7 +20887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15">
+    <row r="41" spans="1:25" ht="15.75">
       <c r="B41">
         <v>3</v>
       </c>
@@ -20907,7 +20925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="15">
+    <row r="42" spans="1:25" ht="15.75">
       <c r="B42">
         <v>3</v>
       </c>
@@ -20945,7 +20963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="15">
+    <row r="43" spans="1:25" ht="15.75">
       <c r="B43">
         <v>3</v>
       </c>
@@ -20983,7 +21001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="15">
+    <row r="44" spans="1:25" ht="15.75">
       <c r="B44">
         <v>3</v>
       </c>
@@ -21021,7 +21039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="15">
+    <row r="45" spans="1:25" ht="15.75">
       <c r="B45">
         <v>3</v>
       </c>
@@ -21059,7 +21077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="15">
+    <row r="46" spans="1:25" ht="15.75">
       <c r="B46">
         <v>3</v>
       </c>
@@ -21097,7 +21115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="15">
+    <row r="47" spans="1:25" ht="15.75">
       <c r="B47">
         <v>3</v>
       </c>
@@ -21135,7 +21153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="15">
+    <row r="48" spans="1:25" ht="15.75">
       <c r="B48">
         <v>3</v>
       </c>
@@ -21173,7 +21191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:25" ht="15">
+    <row r="49" spans="2:25" ht="15.75">
       <c r="B49">
         <v>3</v>
       </c>
@@ -21211,7 +21229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:25" ht="15">
+    <row r="50" spans="2:25" ht="15.75">
       <c r="B50">
         <v>3</v>
       </c>
@@ -21249,7 +21267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:25" ht="15">
+    <row r="51" spans="2:25" ht="15.75">
       <c r="B51">
         <v>3</v>
       </c>
@@ -21287,7 +21305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:25" ht="15">
+    <row r="52" spans="2:25" ht="15.75">
       <c r="B52">
         <v>3</v>
       </c>
@@ -21325,7 +21343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:25" ht="15">
+    <row r="53" spans="2:25" ht="15.75">
       <c r="B53">
         <v>3</v>
       </c>
@@ -21363,7 +21381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:25" ht="15">
+    <row r="54" spans="2:25" ht="15.75">
       <c r="B54">
         <v>3</v>
       </c>
@@ -21401,7 +21419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:25" ht="15">
+    <row r="55" spans="2:25" ht="15.75">
       <c r="B55">
         <v>3</v>
       </c>
@@ -21439,7 +21457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:25" ht="15">
+    <row r="56" spans="2:25" ht="15.75">
       <c r="B56">
         <v>3</v>
       </c>
@@ -21477,7 +21495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:25" ht="15">
+    <row r="57" spans="2:25" ht="15.75">
       <c r="B57">
         <v>3</v>
       </c>
@@ -21515,7 +21533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:25" ht="15">
+    <row r="58" spans="2:25" ht="15.75">
       <c r="B58">
         <v>3</v>
       </c>
@@ -21553,7 +21571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:25" ht="15">
+    <row r="59" spans="2:25" ht="15.75">
       <c r="B59">
         <v>3</v>
       </c>
@@ -21591,7 +21609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:25" ht="15">
+    <row r="60" spans="2:25" ht="15.75">
       <c r="B60">
         <v>3</v>
       </c>
@@ -21629,7 +21647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:25" ht="15">
+    <row r="61" spans="2:25" ht="15.75">
       <c r="B61">
         <v>3</v>
       </c>
@@ -21667,7 +21685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:25" ht="15">
+    <row r="62" spans="2:25" ht="15.75">
       <c r="B62">
         <v>3</v>
       </c>
@@ -21705,7 +21723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:25" ht="15">
+    <row r="63" spans="2:25" ht="15.75">
       <c r="B63">
         <v>3</v>
       </c>
@@ -21743,7 +21761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:25" ht="15">
+    <row r="64" spans="2:25" ht="15.75">
       <c r="B64">
         <v>3</v>
       </c>
@@ -21778,7 +21796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:25" ht="15">
+    <row r="65" spans="2:25" ht="15.75">
       <c r="B65">
         <v>3</v>
       </c>
@@ -21816,7 +21834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:25" ht="15">
+    <row r="66" spans="2:25" ht="15.75">
       <c r="B66">
         <v>3</v>
       </c>
@@ -21854,7 +21872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:25" ht="15">
+    <row r="67" spans="2:25" ht="15.75">
       <c r="B67">
         <v>3</v>
       </c>
@@ -21892,7 +21910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:25" ht="15">
+    <row r="68" spans="2:25" ht="15.75">
       <c r="B68">
         <v>3</v>
       </c>
@@ -21930,7 +21948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:25" ht="15">
+    <row r="69" spans="2:25" ht="15.75">
       <c r="B69">
         <v>3</v>
       </c>
@@ -21968,7 +21986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:25" ht="15">
+    <row r="70" spans="2:25" ht="15.75">
       <c r="B70">
         <v>3</v>
       </c>
@@ -22006,7 +22024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:25" ht="15">
+    <row r="71" spans="2:25" ht="15.75">
       <c r="B71">
         <v>3</v>
       </c>
@@ -22044,7 +22062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:25" ht="15">
+    <row r="72" spans="2:25" ht="15.75">
       <c r="B72">
         <v>3</v>
       </c>
@@ -22082,7 +22100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:25" ht="15">
+    <row r="73" spans="2:25" ht="15.75">
       <c r="B73">
         <v>3</v>
       </c>
@@ -22120,7 +22138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:25" ht="15">
+    <row r="74" spans="2:25" ht="15.75">
       <c r="B74">
         <v>3</v>
       </c>
@@ -22158,7 +22176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:25" ht="15">
+    <row r="75" spans="2:25" ht="15.75">
       <c r="B75">
         <v>3</v>
       </c>
@@ -22196,7 +22214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:25" ht="15">
+    <row r="76" spans="2:25" ht="15.75">
       <c r="B76">
         <v>3</v>
       </c>
@@ -22234,7 +22252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:25" ht="15">
+    <row r="77" spans="2:25" ht="15.75">
       <c r="B77">
         <v>3</v>
       </c>
@@ -22272,7 +22290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:25" ht="15">
+    <row r="78" spans="2:25" ht="15.75">
       <c r="B78">
         <v>3</v>
       </c>
@@ -22310,7 +22328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:25" ht="15">
+    <row r="79" spans="2:25" ht="15.75">
       <c r="B79">
         <v>3</v>
       </c>
@@ -22348,7 +22366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:25" ht="15">
+    <row r="80" spans="2:25" ht="15.75">
       <c r="B80">
         <v>3</v>
       </c>
@@ -22386,7 +22404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:25" ht="15">
+    <row r="81" spans="2:25" ht="15.75">
       <c r="B81">
         <v>3</v>
       </c>
@@ -22424,7 +22442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:25" ht="15">
+    <row r="82" spans="2:25" ht="15.75">
       <c r="B82">
         <v>3</v>
       </c>
@@ -22462,7 +22480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:25" ht="15">
+    <row r="83" spans="2:25" ht="15.75">
       <c r="B83">
         <v>3</v>
       </c>
@@ -22500,7 +22518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:25" ht="15">
+    <row r="84" spans="2:25" ht="15.75">
       <c r="B84">
         <v>3</v>
       </c>
@@ -22538,7 +22556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:25" ht="15">
+    <row r="85" spans="2:25" ht="15.75">
       <c r="B85">
         <v>3</v>
       </c>
@@ -22576,7 +22594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:25" ht="15">
+    <row r="86" spans="2:25" ht="15.75">
       <c r="B86">
         <v>3</v>
       </c>
@@ -22614,7 +22632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:25" ht="15">
+    <row r="87" spans="2:25" ht="15.75">
       <c r="B87">
         <v>3</v>
       </c>
@@ -22652,7 +22670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:25" ht="15">
+    <row r="88" spans="2:25" ht="15.75">
       <c r="B88">
         <v>3</v>
       </c>
@@ -22690,7 +22708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:25" ht="15">
+    <row r="89" spans="2:25" ht="15.75">
       <c r="B89">
         <v>3</v>
       </c>
@@ -22728,7 +22746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:25" ht="15">
+    <row r="90" spans="2:25" ht="15.75">
       <c r="B90">
         <v>3</v>
       </c>
@@ -22766,7 +22784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:25" ht="15">
+    <row r="91" spans="2:25" ht="15.75">
       <c r="B91">
         <v>3</v>
       </c>
@@ -22804,7 +22822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:25" ht="15">
+    <row r="92" spans="2:25" ht="15.75">
       <c r="B92">
         <v>3</v>
       </c>
@@ -22842,7 +22860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:25" ht="15">
+    <row r="93" spans="2:25" ht="15.75">
       <c r="B93">
         <v>3</v>
       </c>
@@ -22880,7 +22898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:25" ht="15">
+    <row r="94" spans="2:25" ht="15.75">
       <c r="B94">
         <v>3</v>
       </c>
@@ -22918,7 +22936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:25" ht="15">
+    <row r="95" spans="2:25" ht="15.75">
       <c r="B95">
         <v>3</v>
       </c>
@@ -22956,7 +22974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:25" ht="15">
+    <row r="96" spans="2:25" ht="15.75">
       <c r="B96">
         <v>3</v>
       </c>
@@ -22994,7 +23012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:25" ht="15">
+    <row r="97" spans="2:25" ht="15.75">
       <c r="B97">
         <v>3</v>
       </c>
@@ -23032,7 +23050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:25" ht="15">
+    <row r="98" spans="2:25" ht="15.75">
       <c r="B98">
         <v>3</v>
       </c>
@@ -23070,7 +23088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:25" ht="15">
+    <row r="99" spans="2:25" ht="15.75">
       <c r="B99">
         <v>3</v>
       </c>
@@ -23108,7 +23126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:25" ht="15">
+    <row r="100" spans="2:25" ht="15.75">
       <c r="B100">
         <v>3</v>
       </c>
@@ -23146,7 +23164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:25" ht="15">
+    <row r="101" spans="2:25" ht="15.75">
       <c r="B101">
         <v>3</v>
       </c>
@@ -23184,7 +23202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:25" ht="15">
+    <row r="102" spans="2:25" ht="15.75">
       <c r="B102">
         <v>3</v>
       </c>
@@ -23222,7 +23240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:25" ht="15">
+    <row r="103" spans="2:25" ht="15.75">
       <c r="B103">
         <v>3</v>
       </c>
@@ -23260,7 +23278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:25" ht="15">
+    <row r="104" spans="2:25" ht="15.75">
       <c r="B104">
         <v>3</v>
       </c>
@@ -23298,7 +23316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:25" ht="15">
+    <row r="105" spans="2:25" ht="15.75">
       <c r="B105">
         <v>3</v>
       </c>
@@ -23336,7 +23354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:25" ht="15">
+    <row r="106" spans="2:25" ht="15.75">
       <c r="B106">
         <v>3</v>
       </c>
@@ -23374,7 +23392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:25" ht="15">
+    <row r="107" spans="2:25" ht="15.75">
       <c r="B107">
         <v>3</v>
       </c>
@@ -23412,7 +23430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:25" ht="15">
+    <row r="108" spans="2:25" ht="15.75">
       <c r="B108">
         <v>3</v>
       </c>
@@ -23450,7 +23468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:25" ht="15">
+    <row r="109" spans="2:25" ht="15.75">
       <c r="B109">
         <v>3</v>
       </c>
@@ -23488,7 +23506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:25" ht="15">
+    <row r="110" spans="2:25" ht="15.75">
       <c r="B110">
         <v>3</v>
       </c>
@@ -23526,7 +23544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:25" ht="15">
+    <row r="111" spans="2:25" ht="15.75">
       <c r="B111">
         <v>3</v>
       </c>
@@ -23564,7 +23582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:25" ht="15">
+    <row r="112" spans="2:25" ht="15.75">
       <c r="B112">
         <v>3</v>
       </c>
@@ -23602,7 +23620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:25" ht="15">
+    <row r="113" spans="2:25" ht="15.75">
       <c r="B113">
         <v>3</v>
       </c>
@@ -23640,7 +23658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:25" ht="15">
+    <row r="114" spans="2:25" ht="15.75">
       <c r="B114">
         <v>3</v>
       </c>
@@ -23678,7 +23696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:25" ht="15">
+    <row r="115" spans="2:25" ht="15.75">
       <c r="B115">
         <v>3</v>
       </c>
@@ -23716,7 +23734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="2:25" ht="15">
+    <row r="116" spans="2:25" ht="15.75">
       <c r="B116">
         <v>3</v>
       </c>
@@ -23754,7 +23772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="2:25" ht="15">
+    <row r="117" spans="2:25" ht="15.75">
       <c r="B117">
         <v>3</v>
       </c>
@@ -23792,7 +23810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:25" ht="15">
+    <row r="118" spans="2:25" ht="15.75">
       <c r="B118">
         <v>3</v>
       </c>
@@ -23830,7 +23848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="2:25" ht="15">
+    <row r="119" spans="2:25" ht="15.75">
       <c r="B119">
         <v>3</v>
       </c>
@@ -23868,7 +23886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="2:25" ht="15">
+    <row r="120" spans="2:25" ht="15.75">
       <c r="B120">
         <v>3</v>
       </c>
@@ -23906,7 +23924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="2:25" ht="15">
+    <row r="121" spans="2:25" ht="15.75">
       <c r="B121">
         <v>3</v>
       </c>
@@ -23944,7 +23962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="2:25" ht="15">
+    <row r="122" spans="2:25" ht="15.75">
       <c r="B122">
         <v>3</v>
       </c>
@@ -23982,7 +24000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="2:25" ht="15">
+    <row r="123" spans="2:25" ht="15.75">
       <c r="B123">
         <v>3</v>
       </c>
@@ -24020,7 +24038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="2:25" ht="15">
+    <row r="124" spans="2:25" ht="15.75">
       <c r="B124">
         <v>3</v>
       </c>
@@ -24058,7 +24076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="2:25" ht="15">
+    <row r="125" spans="2:25" ht="15.75">
       <c r="B125">
         <v>3</v>
       </c>
@@ -24096,7 +24114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="2:25" ht="15">
+    <row r="126" spans="2:25" ht="15.75">
       <c r="B126">
         <v>3</v>
       </c>
@@ -24134,7 +24152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:25" ht="15">
+    <row r="127" spans="2:25" ht="15.75">
       <c r="B127">
         <v>3</v>
       </c>
@@ -24172,7 +24190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:25" ht="15">
+    <row r="128" spans="2:25" ht="15.75">
       <c r="B128">
         <v>3</v>
       </c>
@@ -24210,7 +24228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:25" ht="15">
+    <row r="129" spans="2:25" ht="15.75">
       <c r="B129">
         <v>3</v>
       </c>
@@ -24248,7 +24266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:25" ht="15">
+    <row r="130" spans="2:25" ht="15.75">
       <c r="B130">
         <v>3</v>
       </c>
@@ -24286,7 +24304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:25" ht="15">
+    <row r="131" spans="2:25" ht="15.75">
       <c r="B131">
         <v>3</v>
       </c>
@@ -24324,7 +24342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:25" ht="15">
+    <row r="132" spans="2:25" ht="15.75">
       <c r="B132">
         <v>3</v>
       </c>
@@ -24362,7 +24380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:25" ht="15">
+    <row r="133" spans="2:25" ht="15.75">
       <c r="B133">
         <v>3</v>
       </c>
@@ -24400,7 +24418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:25" ht="15">
+    <row r="134" spans="2:25" ht="15.75">
       <c r="B134">
         <v>3</v>
       </c>
@@ -24438,7 +24456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:25" ht="15">
+    <row r="135" spans="2:25" ht="15.75">
       <c r="B135">
         <v>3</v>
       </c>
@@ -24476,7 +24494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:25" ht="15">
+    <row r="136" spans="2:25" ht="15.75">
       <c r="B136">
         <v>3</v>
       </c>
@@ -24514,7 +24532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:25" ht="15">
+    <row r="137" spans="2:25" ht="15.75">
       <c r="B137">
         <v>3</v>
       </c>
@@ -24552,7 +24570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:25" ht="15">
+    <row r="138" spans="2:25" ht="15.75">
       <c r="B138">
         <v>3</v>
       </c>
@@ -24590,7 +24608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:25" ht="15">
+    <row r="139" spans="2:25" ht="15.75">
       <c r="B139">
         <v>3</v>
       </c>
@@ -24628,7 +24646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:25" ht="15">
+    <row r="140" spans="2:25" ht="15.75">
       <c r="B140">
         <v>3</v>
       </c>
@@ -24666,7 +24684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:25" ht="15">
+    <row r="141" spans="2:25" ht="15.75">
       <c r="B141">
         <v>3</v>
       </c>
@@ -24704,7 +24722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:25" ht="15">
+    <row r="142" spans="2:25" ht="15.75">
       <c r="B142">
         <v>3</v>
       </c>
@@ -24742,7 +24760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:25" ht="15">
+    <row r="143" spans="2:25" ht="15.75">
       <c r="B143">
         <v>3</v>
       </c>
@@ -24780,7 +24798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:25" ht="15">
+    <row r="144" spans="2:25" ht="15.75">
       <c r="B144">
         <v>3</v>
       </c>
@@ -24818,7 +24836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:25" ht="15">
+    <row r="145" spans="2:25" ht="15.75">
       <c r="B145">
         <v>3</v>
       </c>
@@ -24856,7 +24874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:25" ht="15">
+    <row r="146" spans="2:25" ht="15.75">
       <c r="B146">
         <v>3</v>
       </c>
@@ -24894,7 +24912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:25" ht="15">
+    <row r="147" spans="2:25" ht="15.75">
       <c r="B147">
         <v>3</v>
       </c>
@@ -24932,7 +24950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="2:25" ht="15">
+    <row r="148" spans="2:25" ht="15.75">
       <c r="B148">
         <v>3</v>
       </c>
@@ -24970,7 +24988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:25" ht="15">
+    <row r="149" spans="2:25" ht="15.75">
       <c r="B149">
         <v>3</v>
       </c>
@@ -25008,7 +25026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:25" ht="15">
+    <row r="150" spans="2:25" ht="15.75">
       <c r="B150">
         <v>3</v>
       </c>
@@ -25046,7 +25064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:25" ht="15">
+    <row r="151" spans="2:25" ht="15.75">
       <c r="B151">
         <v>3</v>
       </c>
@@ -25084,7 +25102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:25" ht="15">
+    <row r="152" spans="2:25" ht="15.75">
       <c r="B152">
         <v>3</v>
       </c>
@@ -25122,7 +25140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="2:25" ht="15">
+    <row r="153" spans="2:25" ht="15.75">
       <c r="B153">
         <v>3</v>
       </c>
@@ -25160,7 +25178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="2:25" ht="15">
+    <row r="154" spans="2:25" ht="15.75">
       <c r="B154">
         <v>3</v>
       </c>
@@ -25198,7 +25216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="2:25" ht="15">
+    <row r="155" spans="2:25" ht="15.75">
       <c r="B155">
         <v>3</v>
       </c>
@@ -25236,7 +25254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="2:25" ht="15">
+    <row r="156" spans="2:25" ht="15.75">
       <c r="B156">
         <v>3</v>
       </c>
@@ -25274,7 +25292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:25" ht="15">
+    <row r="157" spans="2:25" ht="15.75">
       <c r="B157">
         <v>3</v>
       </c>
@@ -25312,7 +25330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:25" ht="15">
+    <row r="158" spans="2:25" ht="15.75">
       <c r="B158">
         <v>3</v>
       </c>
@@ -25350,7 +25368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:25" ht="15">
+    <row r="159" spans="2:25" ht="15.75">
       <c r="B159">
         <v>3</v>
       </c>
@@ -25388,7 +25406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:25" ht="15">
+    <row r="160" spans="2:25" ht="15.75">
       <c r="B160">
         <v>3</v>
       </c>
@@ -25426,7 +25444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:25" ht="15">
+    <row r="161" spans="2:25" ht="15.75">
       <c r="B161">
         <v>3</v>
       </c>
@@ -25464,7 +25482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="2:25" ht="15">
+    <row r="162" spans="2:25" ht="15.75">
       <c r="B162">
         <v>3</v>
       </c>
@@ -25502,7 +25520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="2:25" ht="15">
+    <row r="163" spans="2:25" ht="15.75">
       <c r="B163">
         <v>3</v>
       </c>
@@ -25540,7 +25558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="2:25" ht="15">
+    <row r="164" spans="2:25" ht="15.75">
       <c r="B164">
         <v>3</v>
       </c>
@@ -25578,7 +25596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="2:25" ht="15">
+    <row r="165" spans="2:25" ht="15.75">
       <c r="B165">
         <v>3</v>
       </c>
@@ -25616,7 +25634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:25" ht="15">
+    <row r="166" spans="2:25" ht="15.75">
       <c r="B166">
         <v>3</v>
       </c>
@@ -25654,7 +25672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:25" ht="15">
+    <row r="167" spans="2:25" ht="15.75">
       <c r="B167">
         <v>3</v>
       </c>
@@ -25692,7 +25710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:25" ht="15">
+    <row r="168" spans="2:25" ht="15.75">
       <c r="B168">
         <v>3</v>
       </c>
@@ -25730,7 +25748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:25" ht="15">
+    <row r="169" spans="2:25" ht="15.75">
       <c r="B169">
         <v>3</v>
       </c>
@@ -25768,7 +25786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:25" ht="15">
+    <row r="170" spans="2:25" ht="15.75">
       <c r="B170">
         <v>3</v>
       </c>
@@ -25806,7 +25824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:25" ht="15">
+    <row r="171" spans="2:25" ht="15.75">
       <c r="B171">
         <v>3</v>
       </c>
@@ -25844,7 +25862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:25" ht="15">
+    <row r="172" spans="2:25" ht="15.75">
       <c r="B172">
         <v>3</v>
       </c>
@@ -25882,7 +25900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:25" ht="15">
+    <row r="173" spans="2:25" ht="15.75">
       <c r="B173">
         <v>3</v>
       </c>
@@ -25920,7 +25938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:25" ht="15">
+    <row r="174" spans="2:25" ht="15.75">
       <c r="B174">
         <v>3</v>
       </c>
@@ -25958,7 +25976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:25" ht="15">
+    <row r="175" spans="2:25" ht="15.75">
       <c r="B175">
         <v>3</v>
       </c>
@@ -25996,7 +26014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:25" ht="15">
+    <row r="176" spans="2:25" ht="15.75">
       <c r="B176">
         <v>3</v>
       </c>
@@ -26034,7 +26052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="2:25" ht="15">
+    <row r="177" spans="2:25" ht="15.75">
       <c r="B177">
         <v>3</v>
       </c>
@@ -26072,7 +26090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="2:25" ht="15">
+    <row r="178" spans="2:25" ht="15.75">
       <c r="B178">
         <v>3</v>
       </c>
@@ -26110,7 +26128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="2:25" ht="15">
+    <row r="179" spans="2:25" ht="15.75">
       <c r="B179">
         <v>3</v>
       </c>
@@ -26148,7 +26166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:25" ht="15">
+    <row r="180" spans="2:25" ht="15.75">
       <c r="B180">
         <v>3</v>
       </c>
@@ -26186,7 +26204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:25" ht="15">
+    <row r="181" spans="2:25" ht="15.75">
       <c r="B181">
         <v>3</v>
       </c>
@@ -26224,7 +26242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:25" ht="15">
+    <row r="182" spans="2:25" ht="15.75">
       <c r="B182">
         <v>3</v>
       </c>
@@ -26262,7 +26280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:25" ht="15">
+    <row r="183" spans="2:25" ht="15.75">
       <c r="B183">
         <v>3</v>
       </c>
@@ -26300,7 +26318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:25" ht="15">
+    <row r="184" spans="2:25" ht="15.75">
       <c r="B184">
         <v>3</v>
       </c>
@@ -26338,7 +26356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:25" ht="15">
+    <row r="185" spans="2:25" ht="15.75">
       <c r="B185">
         <v>3</v>
       </c>
@@ -26376,7 +26394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:25" ht="15">
+    <row r="186" spans="2:25" ht="15.75">
       <c r="B186">
         <v>3</v>
       </c>
@@ -26414,7 +26432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:25" ht="15">
+    <row r="187" spans="2:25" ht="15.75">
       <c r="B187">
         <v>3</v>
       </c>
@@ -26452,7 +26470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:25" ht="15">
+    <row r="188" spans="2:25" ht="15.75">
       <c r="B188">
         <v>3</v>
       </c>
@@ -26490,7 +26508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:25" ht="15">
+    <row r="189" spans="2:25" ht="15.75">
       <c r="B189">
         <v>3</v>
       </c>
@@ -26528,7 +26546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:25" ht="15">
+    <row r="190" spans="2:25" ht="15.75">
       <c r="B190">
         <v>3</v>
       </c>
@@ -26566,7 +26584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:25" ht="15">
+    <row r="191" spans="2:25" ht="15.75">
       <c r="B191">
         <v>3</v>
       </c>
@@ -26604,7 +26622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:25" ht="15">
+    <row r="192" spans="2:25" ht="15.75">
       <c r="B192">
         <v>3</v>
       </c>
@@ -26642,7 +26660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="2:25" ht="15">
+    <row r="193" spans="2:25" ht="15.75">
       <c r="B193">
         <v>3</v>
       </c>
@@ -26680,7 +26698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:25" ht="15">
+    <row r="194" spans="2:25" ht="15.75">
       <c r="B194">
         <v>3</v>
       </c>
@@ -26718,7 +26736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:25" ht="15">
+    <row r="195" spans="2:25" ht="15.75">
       <c r="B195">
         <v>3</v>
       </c>
@@ -26756,7 +26774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:25" ht="15">
+    <row r="196" spans="2:25" ht="15.75">
       <c r="B196">
         <v>3</v>
       </c>
@@ -26794,7 +26812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:25" ht="15">
+    <row r="197" spans="2:25" ht="15.75">
       <c r="B197">
         <v>3</v>
       </c>
@@ -26832,7 +26850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:25" ht="15">
+    <row r="198" spans="2:25" ht="15.75">
       <c r="B198">
         <v>3</v>
       </c>
@@ -26870,7 +26888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="2:25" ht="15">
+    <row r="199" spans="2:25" ht="15.75">
       <c r="B199">
         <v>3</v>
       </c>
@@ -26908,7 +26926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="2:25" ht="15">
+    <row r="200" spans="2:25" ht="15.75">
       <c r="B200">
         <v>3</v>
       </c>
@@ -26946,7 +26964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:25" ht="15">
+    <row r="201" spans="2:25" ht="15.75">
       <c r="B201">
         <v>3</v>
       </c>
@@ -26984,7 +27002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="2:25" ht="15">
+    <row r="202" spans="2:25" ht="15.75">
       <c r="B202">
         <v>3</v>
       </c>
@@ -27022,7 +27040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="2:25" ht="15">
+    <row r="203" spans="2:25" ht="15.75">
       <c r="B203">
         <v>3</v>
       </c>
@@ -27060,7 +27078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="2:25" ht="15">
+    <row r="204" spans="2:25" ht="15.75">
       <c r="B204">
         <v>3</v>
       </c>
@@ -27098,7 +27116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="2:25" ht="15">
+    <row r="205" spans="2:25" ht="15.75">
       <c r="B205">
         <v>3</v>
       </c>
@@ -27136,7 +27154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="2:25" ht="15">
+    <row r="206" spans="2:25" ht="15.75">
       <c r="B206">
         <v>3</v>
       </c>
@@ -27174,7 +27192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="2:25" ht="15">
+    <row r="207" spans="2:25" ht="15.75">
       <c r="B207">
         <v>3</v>
       </c>
@@ -27212,7 +27230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:25" ht="15">
+    <row r="208" spans="2:25" ht="15.75">
       <c r="B208">
         <v>3</v>
       </c>
@@ -27250,7 +27268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:25" ht="15">
+    <row r="209" spans="2:25" ht="15.75">
       <c r="B209">
         <v>3</v>
       </c>
@@ -27288,7 +27306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:25" ht="15">
+    <row r="210" spans="2:25" ht="15.75">
       <c r="B210">
         <v>3</v>
       </c>
@@ -27326,7 +27344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:25" ht="15">
+    <row r="211" spans="2:25" ht="15.75">
       <c r="B211">
         <v>3</v>
       </c>
@@ -27364,7 +27382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="2:25" ht="15">
+    <row r="212" spans="2:25" ht="15.75">
       <c r="B212">
         <v>3</v>
       </c>
@@ -27402,7 +27420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:25" ht="15">
+    <row r="213" spans="2:25" ht="15.75">
       <c r="B213">
         <v>3</v>
       </c>
@@ -27440,7 +27458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:25" ht="15">
+    <row r="214" spans="2:25" ht="15.75">
       <c r="B214">
         <v>3</v>
       </c>
@@ -27478,7 +27496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="2:25" ht="15">
+    <row r="215" spans="2:25" ht="15.75">
       <c r="B215">
         <v>3</v>
       </c>
@@ -27516,7 +27534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="2:25" ht="15">
+    <row r="216" spans="2:25" ht="15.75">
       <c r="B216">
         <v>3</v>
       </c>
@@ -27554,7 +27572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:25" ht="15">
+    <row r="217" spans="2:25" ht="15.75">
       <c r="B217">
         <v>3</v>
       </c>
@@ -27592,7 +27610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="2:25" ht="15">
+    <row r="218" spans="2:25" ht="15.75">
       <c r="B218">
         <v>3</v>
       </c>
@@ -27630,7 +27648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="2:25" ht="15">
+    <row r="219" spans="2:25" ht="15.75">
       <c r="B219">
         <v>3</v>
       </c>
@@ -27668,7 +27686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="2:25" ht="15">
+    <row r="220" spans="2:25" ht="15.75">
       <c r="B220">
         <v>3</v>
       </c>
@@ -27706,7 +27724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="2:25" ht="15">
+    <row r="221" spans="2:25" ht="15.75">
       <c r="B221">
         <v>3</v>
       </c>
@@ -27744,7 +27762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="2:25" ht="15">
+    <row r="222" spans="2:25" ht="15.75">
       <c r="B222">
         <v>3</v>
       </c>
@@ -27782,7 +27800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="2:25" ht="15">
+    <row r="223" spans="2:25" ht="15.75">
       <c r="B223">
         <v>3</v>
       </c>
@@ -27820,7 +27838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="2:25" ht="15">
+    <row r="224" spans="2:25" ht="15.75">
       <c r="B224">
         <v>3</v>
       </c>
@@ -27858,7 +27876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="2:25" ht="15">
+    <row r="225" spans="2:25" ht="15.75">
       <c r="B225">
         <v>3</v>
       </c>
@@ -27896,7 +27914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="2:25" ht="15">
+    <row r="226" spans="2:25" ht="15.75">
       <c r="B226">
         <v>3</v>
       </c>
@@ -27934,7 +27952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="2:25" ht="15">
+    <row r="227" spans="2:25" ht="15.75">
       <c r="B227">
         <v>3</v>
       </c>
@@ -27972,7 +27990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="2:25" ht="15">
+    <row r="228" spans="2:25" ht="15.75">
       <c r="B228">
         <v>3</v>
       </c>
@@ -28010,7 +28028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="2:25" ht="15">
+    <row r="229" spans="2:25" ht="15.75">
       <c r="B229">
         <v>3</v>
       </c>
@@ -28048,7 +28066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="2:25" ht="15">
+    <row r="230" spans="2:25" ht="15.75">
       <c r="B230">
         <v>3</v>
       </c>
@@ -28086,7 +28104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="2:25" ht="15">
+    <row r="231" spans="2:25" ht="15.75">
       <c r="B231">
         <v>3</v>
       </c>
@@ -28124,7 +28142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:25" ht="15">
+    <row r="232" spans="2:25" ht="15.75">
       <c r="B232">
         <v>3</v>
       </c>
@@ -28162,7 +28180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="2:25" ht="15">
+    <row r="233" spans="2:25" ht="15.75">
       <c r="B233">
         <v>3</v>
       </c>
@@ -28200,7 +28218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:25" ht="15">
+    <row r="234" spans="2:25" ht="15.75">
       <c r="B234">
         <v>3</v>
       </c>
@@ -28238,7 +28256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="2:25" ht="15">
+    <row r="235" spans="2:25" ht="15.75">
       <c r="B235">
         <v>3</v>
       </c>
@@ -28276,7 +28294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="2:25" ht="15">
+    <row r="236" spans="2:25" ht="15.75">
       <c r="B236">
         <v>3</v>
       </c>
@@ -28314,7 +28332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="2:25" ht="15">
+    <row r="237" spans="2:25" ht="15.75">
       <c r="B237">
         <v>3</v>
       </c>
@@ -28352,7 +28370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="2:25" ht="15">
+    <row r="238" spans="2:25" ht="15.75">
       <c r="B238">
         <v>3</v>
       </c>
@@ -28390,7 +28408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="2:25" ht="15">
+    <row r="239" spans="2:25" ht="15.75">
       <c r="B239">
         <v>3</v>
       </c>
@@ -28428,7 +28446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="2:25" ht="15">
+    <row r="240" spans="2:25" ht="15.75">
       <c r="B240">
         <v>3</v>
       </c>
@@ -28466,7 +28484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="2:25" ht="15">
+    <row r="241" spans="2:25" ht="15.75">
       <c r="B241">
         <v>3</v>
       </c>
@@ -28504,7 +28522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="2:25" ht="15">
+    <row r="242" spans="2:25" ht="15.75">
       <c r="B242">
         <v>3</v>
       </c>
@@ -28542,7 +28560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="2:25" ht="15">
+    <row r="243" spans="2:25" ht="15.75">
       <c r="B243">
         <v>3</v>
       </c>
@@ -28580,7 +28598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="2:25" ht="15">
+    <row r="244" spans="2:25" ht="15.75">
       <c r="B244">
         <v>3</v>
       </c>
@@ -28618,7 +28636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="2:25" ht="15">
+    <row r="245" spans="2:25" ht="15.75">
       <c r="B245">
         <v>3</v>
       </c>
@@ -28656,7 +28674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="2:25" ht="15">
+    <row r="246" spans="2:25" ht="15.75">
       <c r="B246">
         <v>3</v>
       </c>
@@ -28694,7 +28712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="2:25" ht="15">
+    <row r="247" spans="2:25" ht="15.75">
       <c r="B247">
         <v>3</v>
       </c>
@@ -28732,7 +28750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="2:25" ht="15">
+    <row r="248" spans="2:25" ht="15.75">
       <c r="B248">
         <v>3</v>
       </c>
@@ -28770,7 +28788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="2:25" ht="15">
+    <row r="249" spans="2:25" ht="15.75">
       <c r="B249">
         <v>3</v>
       </c>
@@ -28808,7 +28826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="2:25" ht="15">
+    <row r="250" spans="2:25" ht="15.75">
       <c r="B250">
         <v>3</v>
       </c>
@@ -28846,7 +28864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="2:25" ht="15">
+    <row r="251" spans="2:25" ht="15.75">
       <c r="B251">
         <v>3</v>
       </c>
@@ -28884,7 +28902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="2:25" ht="15">
+    <row r="252" spans="2:25" ht="15.75">
       <c r="B252">
         <v>3</v>
       </c>
@@ -28922,7 +28940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:25" ht="15">
+    <row r="253" spans="2:25" ht="15.75">
       <c r="B253">
         <v>3</v>
       </c>
@@ -28960,7 +28978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="2:25" ht="15">
+    <row r="254" spans="2:25" ht="15.75">
       <c r="B254">
         <v>3</v>
       </c>
@@ -28998,7 +29016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="2:25" ht="15">
+    <row r="255" spans="2:25" ht="15.75">
       <c r="B255">
         <v>3</v>
       </c>
@@ -29036,7 +29054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="2:25" ht="15">
+    <row r="256" spans="2:25" ht="15.75">
       <c r="B256">
         <v>3</v>
       </c>
@@ -29074,7 +29092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="2:25" ht="15">
+    <row r="257" spans="2:25" ht="15.75">
       <c r="B257">
         <v>3</v>
       </c>
@@ -29112,7 +29130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="2:25" ht="15">
+    <row r="258" spans="2:25" ht="15.75">
       <c r="B258">
         <v>3</v>
       </c>
@@ -29150,7 +29168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="2:25" ht="15">
+    <row r="259" spans="2:25" ht="15.75">
       <c r="B259">
         <v>3</v>
       </c>
@@ -29188,7 +29206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="2:25" ht="15">
+    <row r="260" spans="2:25" ht="15.75">
       <c r="B260">
         <v>3</v>
       </c>
@@ -29226,7 +29244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="2:25" ht="15">
+    <row r="261" spans="2:25" ht="15.75">
       <c r="B261">
         <v>3</v>
       </c>
@@ -29264,7 +29282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:25" ht="15">
+    <row r="262" spans="2:25" ht="15.75">
       <c r="B262">
         <v>3</v>
       </c>
@@ -29302,7 +29320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="2:25" ht="15">
+    <row r="263" spans="2:25" ht="15.75">
       <c r="B263">
         <v>3</v>
       </c>
@@ -29340,7 +29358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="2:25" ht="15">
+    <row r="264" spans="2:25" ht="15.75">
       <c r="B264">
         <v>3</v>
       </c>
@@ -29378,7 +29396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:25" ht="15">
+    <row r="265" spans="2:25" ht="15.75">
       <c r="B265">
         <v>3</v>
       </c>
@@ -29416,7 +29434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="2:25" ht="15">
+    <row r="266" spans="2:25" ht="15.75">
       <c r="B266">
         <v>3</v>
       </c>
@@ -29454,7 +29472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="2:25" ht="15">
+    <row r="267" spans="2:25" ht="15.75">
       <c r="B267">
         <v>3</v>
       </c>
@@ -29492,7 +29510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="2:25" ht="15">
+    <row r="268" spans="2:25" ht="15.75">
       <c r="B268">
         <v>3</v>
       </c>
@@ -29530,7 +29548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="2:25" ht="15">
+    <row r="269" spans="2:25" ht="15.75">
       <c r="B269">
         <v>3</v>
       </c>
@@ -29568,7 +29586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:25" ht="15">
+    <row r="270" spans="2:25" ht="15.75">
       <c r="B270">
         <v>3</v>
       </c>
@@ -29606,7 +29624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:25" ht="15">
+    <row r="271" spans="2:25" ht="15.75">
       <c r="B271">
         <v>3</v>
       </c>
@@ -29644,7 +29662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="2:25" ht="15">
+    <row r="272" spans="2:25" ht="15.75">
       <c r="B272">
         <v>3</v>
       </c>
@@ -29682,7 +29700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:25" ht="15">
+    <row r="273" spans="2:25" ht="15.75">
       <c r="B273">
         <v>3</v>
       </c>
@@ -29720,7 +29738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="2:25" ht="15">
+    <row r="274" spans="2:25" ht="15.75">
       <c r="B274">
         <v>3</v>
       </c>
@@ -29758,7 +29776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="2:25" ht="15">
+    <row r="275" spans="2:25" ht="15.75">
       <c r="B275">
         <v>3</v>
       </c>
@@ -29796,7 +29814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="2:25" ht="15">
+    <row r="276" spans="2:25" ht="15.75">
       <c r="B276">
         <v>3</v>
       </c>
@@ -29834,7 +29852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="2:25" ht="15">
+    <row r="277" spans="2:25" ht="15.75">
       <c r="B277">
         <v>3</v>
       </c>
@@ -29872,7 +29890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="2:25" ht="15">
+    <row r="278" spans="2:25" ht="15.75">
       <c r="B278">
         <v>3</v>
       </c>
@@ -29910,7 +29928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:25" ht="15">
+    <row r="279" spans="2:25" ht="15.75">
       <c r="B279">
         <v>3</v>
       </c>
@@ -29948,7 +29966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:25" ht="15">
+    <row r="280" spans="2:25" ht="15.75">
       <c r="B280">
         <v>3</v>
       </c>
@@ -29986,7 +30004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="2:25" ht="15">
+    <row r="281" spans="2:25" ht="15.75">
       <c r="B281">
         <v>3</v>
       </c>
@@ -30024,7 +30042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:25" ht="15">
+    <row r="282" spans="2:25" ht="15.75">
       <c r="B282">
         <v>3</v>
       </c>
@@ -30062,7 +30080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:25" ht="15">
+    <row r="283" spans="2:25" ht="15.75">
       <c r="B283">
         <v>3</v>
       </c>
@@ -30100,7 +30118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="2:25" ht="15">
+    <row r="284" spans="2:25" ht="15.75">
       <c r="B284">
         <v>3</v>
       </c>
@@ -30138,7 +30156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="2:25" ht="15">
+    <row r="285" spans="2:25" ht="15.75">
       <c r="B285">
         <v>3</v>
       </c>
@@ -30176,7 +30194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="2:25" ht="15">
+    <row r="286" spans="2:25" ht="15.75">
       <c r="B286">
         <v>3</v>
       </c>
@@ -30214,7 +30232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="2:25" ht="15">
+    <row r="287" spans="2:25" ht="15.75">
       <c r="B287">
         <v>3</v>
       </c>
@@ -30252,7 +30270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="2:25" ht="15">
+    <row r="288" spans="2:25" ht="15.75">
       <c r="B288">
         <v>3</v>
       </c>
@@ -30290,7 +30308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="2:25" ht="15">
+    <row r="289" spans="2:25" ht="15.75">
       <c r="B289">
         <v>3</v>
       </c>
@@ -30328,7 +30346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="2:25" ht="15">
+    <row r="290" spans="2:25" ht="15.75">
       <c r="B290">
         <v>3</v>
       </c>
@@ -30366,7 +30384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="2:25" ht="15">
+    <row r="291" spans="2:25" ht="15.75">
       <c r="B291">
         <v>3</v>
       </c>
@@ -30404,7 +30422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="2:25" ht="15">
+    <row r="292" spans="2:25" ht="15.75">
       <c r="B292">
         <v>3</v>
       </c>
@@ -30442,7 +30460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="2:25" ht="15">
+    <row r="293" spans="2:25" ht="15.75">
       <c r="B293">
         <v>3</v>
       </c>
@@ -30480,7 +30498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="2:25" ht="15">
+    <row r="294" spans="2:25" ht="15.75">
       <c r="B294">
         <v>3</v>
       </c>
@@ -30518,7 +30536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="2:25" ht="15">
+    <row r="295" spans="2:25" ht="15.75">
       <c r="B295">
         <v>3</v>
       </c>
@@ -30556,7 +30574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:25" ht="15">
+    <row r="296" spans="2:25" ht="15.75">
       <c r="B296">
         <v>3</v>
       </c>
@@ -30594,7 +30612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="2:25" ht="15">
+    <row r="297" spans="2:25" ht="15.75">
       <c r="B297">
         <v>3</v>
       </c>
@@ -30632,7 +30650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="2:25" ht="15">
+    <row r="298" spans="2:25" ht="15.75">
       <c r="B298">
         <v>3</v>
       </c>
@@ -30670,7 +30688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="2:25" ht="15">
+    <row r="299" spans="2:25" ht="15.75">
       <c r="B299">
         <v>3</v>
       </c>
@@ -30708,7 +30726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="2:25" ht="15">
+    <row r="300" spans="2:25" ht="15.75">
       <c r="B300">
         <v>3</v>
       </c>
@@ -30746,7 +30764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="2:25" ht="15">
+    <row r="301" spans="2:25" ht="15.75">
       <c r="B301">
         <v>3</v>
       </c>
@@ -30784,7 +30802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="2:25" ht="15">
+    <row r="302" spans="2:25" ht="15.75">
       <c r="B302">
         <v>3</v>
       </c>
@@ -30822,7 +30840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="2:25" ht="15">
+    <row r="303" spans="2:25" ht="15.75">
       <c r="B303">
         <v>3</v>
       </c>
@@ -30860,7 +30878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="2:25" ht="15">
+    <row r="304" spans="2:25" ht="15.75">
       <c r="B304">
         <v>3</v>
       </c>
@@ -30898,7 +30916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="2:25" ht="15">
+    <row r="305" spans="2:25" ht="15.75">
       <c r="B305">
         <v>3</v>
       </c>
@@ -30936,7 +30954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="2:25" ht="15">
+    <row r="306" spans="2:25" ht="15.75">
       <c r="B306">
         <v>3</v>
       </c>
@@ -30974,7 +30992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="2:25" ht="15">
+    <row r="307" spans="2:25" ht="15.75">
       <c r="B307">
         <v>3</v>
       </c>
@@ -31012,7 +31030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="2:25" ht="15">
+    <row r="308" spans="2:25" ht="15.75">
       <c r="B308">
         <v>3</v>
       </c>
@@ -31050,7 +31068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="2:25" ht="15">
+    <row r="309" spans="2:25" ht="15.75">
       <c r="B309">
         <v>3</v>
       </c>
@@ -31088,7 +31106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="2:25" ht="15">
+    <row r="310" spans="2:25" ht="15.75">
       <c r="B310">
         <v>3</v>
       </c>
@@ -31126,7 +31144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="2:25" ht="15">
+    <row r="311" spans="2:25" ht="15.75">
       <c r="B311">
         <v>3</v>
       </c>
@@ -31164,7 +31182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="2:25" ht="15">
+    <row r="312" spans="2:25" ht="15.75">
       <c r="B312">
         <v>3</v>
       </c>
@@ -31202,7 +31220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="2:25" ht="15">
+    <row r="313" spans="2:25" ht="15.75">
       <c r="B313">
         <v>3</v>
       </c>
@@ -31240,7 +31258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="2:25" ht="15">
+    <row r="314" spans="2:25" ht="15.75">
       <c r="B314">
         <v>3</v>
       </c>
@@ -31278,7 +31296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="2:25" ht="15">
+    <row r="315" spans="2:25" ht="15.75">
       <c r="B315">
         <v>3</v>
       </c>
@@ -31316,7 +31334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="2:25" ht="15">
+    <row r="316" spans="2:25" ht="15.75">
       <c r="B316">
         <v>3</v>
       </c>
@@ -31354,7 +31372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="2:25" ht="15">
+    <row r="317" spans="2:25" ht="15.75">
       <c r="B317">
         <v>3</v>
       </c>
@@ -31392,7 +31410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="2:25" ht="15">
+    <row r="318" spans="2:25" ht="15.75">
       <c r="B318">
         <v>3</v>
       </c>
@@ -31430,7 +31448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="2:25" ht="15">
+    <row r="319" spans="2:25" ht="15.75">
       <c r="B319">
         <v>3</v>
       </c>
@@ -31468,7 +31486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="2:25" ht="15">
+    <row r="320" spans="2:25" ht="15.75">
       <c r="B320">
         <v>3</v>
       </c>
@@ -31506,7 +31524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="2:25" ht="15">
+    <row r="321" spans="2:25" ht="15.75">
       <c r="B321">
         <v>3</v>
       </c>
@@ -31544,7 +31562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="2:25" ht="15">
+    <row r="322" spans="2:25" ht="15.75">
       <c r="B322">
         <v>3</v>
       </c>
@@ -31582,7 +31600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="2:25" ht="15">
+    <row r="323" spans="2:25" ht="15.75">
       <c r="B323">
         <v>3</v>
       </c>
@@ -31620,7 +31638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="2:25" ht="15">
+    <row r="324" spans="2:25" ht="15.75">
       <c r="B324">
         <v>3</v>
       </c>
@@ -31658,7 +31676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="2:25" ht="15">
+    <row r="325" spans="2:25" ht="15.75">
       <c r="B325">
         <v>3</v>
       </c>
@@ -31696,7 +31714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="2:25" ht="15">
+    <row r="326" spans="2:25" ht="15.75">
       <c r="B326">
         <v>3</v>
       </c>
@@ -31734,7 +31752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="2:25" ht="15">
+    <row r="327" spans="2:25" ht="15.75">
       <c r="B327">
         <v>3</v>
       </c>
@@ -31772,7 +31790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="2:25" ht="15">
+    <row r="328" spans="2:25" ht="15.75">
       <c r="B328">
         <v>3</v>
       </c>
@@ -31810,7 +31828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="2:25" ht="15">
+    <row r="329" spans="2:25" ht="15.75">
       <c r="B329">
         <v>3</v>
       </c>
@@ -31848,7 +31866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="2:25" ht="15">
+    <row r="330" spans="2:25" ht="15.75">
       <c r="B330">
         <v>3</v>
       </c>
@@ -31886,7 +31904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="2:25" ht="15">
+    <row r="331" spans="2:25" ht="15.75">
       <c r="B331">
         <v>3</v>
       </c>
@@ -31924,7 +31942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="2:25" ht="15">
+    <row r="332" spans="2:25" ht="15.75">
       <c r="B332">
         <v>3</v>
       </c>
@@ -31962,7 +31980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="2:25" ht="15">
+    <row r="333" spans="2:25" ht="15.75">
       <c r="B333">
         <v>3</v>
       </c>
@@ -32000,7 +32018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="2:25" ht="15">
+    <row r="334" spans="2:25" ht="15.75">
       <c r="B334">
         <v>3</v>
       </c>
@@ -32038,7 +32056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="2:25" ht="15">
+    <row r="335" spans="2:25" ht="15.75">
       <c r="B335">
         <v>3</v>
       </c>
@@ -32076,7 +32094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="2:25" ht="15">
+    <row r="336" spans="2:25" ht="15.75">
       <c r="B336">
         <v>3</v>
       </c>
@@ -32114,7 +32132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="2:25" ht="15">
+    <row r="337" spans="2:25" ht="15.75">
       <c r="B337">
         <v>3</v>
       </c>
@@ -32152,7 +32170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="2:25" ht="15">
+    <row r="338" spans="2:25" ht="15.75">
       <c r="B338">
         <v>3</v>
       </c>
@@ -32190,7 +32208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="2:25" ht="15">
+    <row r="339" spans="2:25" ht="15.75">
       <c r="B339">
         <v>3</v>
       </c>
@@ -32228,7 +32246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="2:25" ht="15">
+    <row r="340" spans="2:25" ht="15.75">
       <c r="B340">
         <v>3</v>
       </c>
@@ -32266,7 +32284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="2:25" ht="15">
+    <row r="341" spans="2:25" ht="15.75">
       <c r="B341">
         <v>3</v>
       </c>
@@ -32304,7 +32322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="2:25" ht="15">
+    <row r="342" spans="2:25" ht="15.75">
       <c r="B342">
         <v>3</v>
       </c>
@@ -32342,7 +32360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="2:25" ht="15">
+    <row r="343" spans="2:25" ht="15.75">
       <c r="B343">
         <v>3</v>
       </c>
@@ -32380,7 +32398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="2:25" ht="15">
+    <row r="344" spans="2:25" ht="15.75">
       <c r="B344">
         <v>3</v>
       </c>
@@ -32418,7 +32436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="2:25" ht="15">
+    <row r="345" spans="2:25" ht="15.75">
       <c r="B345">
         <v>3</v>
       </c>
@@ -32456,7 +32474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="2:25" ht="15">
+    <row r="346" spans="2:25" ht="15.75">
       <c r="B346">
         <v>3</v>
       </c>
@@ -32494,7 +32512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="2:25" ht="15">
+    <row r="347" spans="2:25" ht="15.75">
       <c r="B347">
         <v>3</v>
       </c>
@@ -32532,7 +32550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="2:25" ht="15">
+    <row r="348" spans="2:25" ht="15.75">
       <c r="B348">
         <v>3</v>
       </c>
@@ -32570,7 +32588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="2:25" ht="15">
+    <row r="349" spans="2:25" ht="15.75">
       <c r="B349">
         <v>3</v>
       </c>
@@ -32608,7 +32626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="2:25" ht="15">
+    <row r="350" spans="2:25" ht="15.75">
       <c r="B350">
         <v>3</v>
       </c>
@@ -32646,7 +32664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="2:25" ht="15">
+    <row r="351" spans="2:25" ht="15.75">
       <c r="B351">
         <v>3</v>
       </c>
@@ -32684,7 +32702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="2:25" ht="15">
+    <row r="352" spans="2:25" ht="15.75">
       <c r="B352">
         <v>3</v>
       </c>
@@ -32722,7 +32740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="2:25" ht="15">
+    <row r="353" spans="2:25" ht="15.75">
       <c r="B353">
         <v>3</v>
       </c>
@@ -32760,7 +32778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="2:25" ht="15">
+    <row r="354" spans="2:25" ht="15.75">
       <c r="B354">
         <v>3</v>
       </c>
@@ -32798,7 +32816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="2:25" ht="15">
+    <row r="355" spans="2:25" ht="15.75">
       <c r="B355">
         <v>3</v>
       </c>
@@ -32836,7 +32854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="2:25" ht="15">
+    <row r="356" spans="2:25" ht="15.75">
       <c r="B356">
         <v>3</v>
       </c>
@@ -32874,7 +32892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="2:25" ht="15">
+    <row r="357" spans="2:25" ht="15.75">
       <c r="B357">
         <v>3</v>
       </c>
@@ -32912,7 +32930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="2:25" ht="15">
+    <row r="358" spans="2:25" ht="15.75">
       <c r="B358">
         <v>3</v>
       </c>
@@ -32950,7 +32968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="2:25" ht="15">
+    <row r="359" spans="2:25" ht="15.75">
       <c r="B359">
         <v>3</v>
       </c>
@@ -32988,7 +33006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="2:25" ht="15">
+    <row r="360" spans="2:25" ht="15.75">
       <c r="B360">
         <v>3</v>
       </c>
@@ -33026,7 +33044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="2:25" ht="15">
+    <row r="361" spans="2:25" ht="15.75">
       <c r="B361">
         <v>3</v>
       </c>
@@ -33064,7 +33082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="2:25" ht="15">
+    <row r="362" spans="2:25" ht="15.75">
       <c r="B362">
         <v>3</v>
       </c>
@@ -33102,7 +33120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="2:25" ht="15">
+    <row r="363" spans="2:25" ht="15.75">
       <c r="B363">
         <v>3</v>
       </c>
@@ -33140,7 +33158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="2:25" ht="15">
+    <row r="364" spans="2:25" ht="15.75">
       <c r="B364">
         <v>3</v>
       </c>
@@ -33178,7 +33196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="2:25" ht="15">
+    <row r="365" spans="2:25" ht="15.75">
       <c r="B365">
         <v>3</v>
       </c>
@@ -33216,7 +33234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="2:25" ht="15">
+    <row r="366" spans="2:25" ht="15.75">
       <c r="B366">
         <v>3</v>
       </c>
@@ -33254,7 +33272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="2:25" ht="15">
+    <row r="367" spans="2:25" ht="15.75">
       <c r="B367">
         <v>3</v>
       </c>
@@ -33292,7 +33310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="2:25" ht="15">
+    <row r="368" spans="2:25" ht="15.75">
       <c r="B368">
         <v>3</v>
       </c>
@@ -33330,7 +33348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="2:25" ht="15">
+    <row r="369" spans="2:25" ht="15.75">
       <c r="B369">
         <v>3</v>
       </c>
@@ -33368,7 +33386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="2:25" ht="15">
+    <row r="370" spans="2:25" ht="15.75">
       <c r="B370">
         <v>3</v>
       </c>
@@ -33406,7 +33424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="2:25" ht="15">
+    <row r="371" spans="2:25" ht="15.75">
       <c r="B371">
         <v>3</v>
       </c>
@@ -33444,7 +33462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="2:25" ht="15">
+    <row r="372" spans="2:25" ht="15.75">
       <c r="B372">
         <v>3</v>
       </c>
@@ -33482,7 +33500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="2:25" ht="15">
+    <row r="373" spans="2:25" ht="15.75">
       <c r="B373">
         <v>3</v>
       </c>
@@ -33520,7 +33538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="2:25" ht="15">
+    <row r="374" spans="2:25" ht="15.75">
       <c r="B374">
         <v>3</v>
       </c>
@@ -33558,7 +33576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="2:25" ht="15">
+    <row r="375" spans="2:25" ht="15.75">
       <c r="B375">
         <v>3</v>
       </c>
@@ -33596,7 +33614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="2:25" ht="15">
+    <row r="376" spans="2:25" ht="15.75">
       <c r="B376">
         <v>3</v>
       </c>
@@ -33634,7 +33652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="2:25" ht="15">
+    <row r="377" spans="2:25" ht="15.75">
       <c r="B377">
         <v>3</v>
       </c>
@@ -33672,7 +33690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="2:25" ht="15">
+    <row r="378" spans="2:25" ht="15.75">
       <c r="B378">
         <v>3</v>
       </c>
@@ -33710,7 +33728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="2:25" ht="15">
+    <row r="379" spans="2:25" ht="15.75">
       <c r="B379">
         <v>3</v>
       </c>
@@ -33748,7 +33766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="2:25" ht="15">
+    <row r="380" spans="2:25" ht="15.75">
       <c r="B380">
         <v>3</v>
       </c>
@@ -33786,7 +33804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="2:25" ht="15">
+    <row r="381" spans="2:25" ht="15.75">
       <c r="B381">
         <v>3</v>
       </c>
@@ -33824,7 +33842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="2:25" ht="15">
+    <row r="382" spans="2:25" ht="15.75">
       <c r="B382">
         <v>3</v>
       </c>
@@ -33862,7 +33880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="2:25" ht="15">
+    <row r="383" spans="2:25" ht="15.75">
       <c r="B383">
         <v>3</v>
       </c>
@@ -33900,7 +33918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="2:25" ht="15">
+    <row r="384" spans="2:25" ht="15.75">
       <c r="B384">
         <v>3</v>
       </c>
@@ -33938,7 +33956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="2:25" ht="15">
+    <row r="385" spans="2:25" ht="15.75">
       <c r="B385">
         <v>3</v>
       </c>
@@ -33976,7 +33994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="2:25" ht="15">
+    <row r="386" spans="2:25" ht="15.75">
       <c r="B386">
         <v>3</v>
       </c>
@@ -34014,7 +34032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="2:25" ht="15">
+    <row r="387" spans="2:25" ht="15.75">
       <c r="B387">
         <v>3</v>
       </c>
@@ -34052,7 +34070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="2:25" ht="15">
+    <row r="388" spans="2:25" ht="15.75">
       <c r="B388">
         <v>3</v>
       </c>
@@ -34090,7 +34108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="2:25" ht="15">
+    <row r="389" spans="2:25" ht="15.75">
       <c r="B389">
         <v>3</v>
       </c>
@@ -34128,7 +34146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="2:25" ht="15">
+    <row r="390" spans="2:25" ht="15.75">
       <c r="B390">
         <v>3</v>
       </c>
@@ -34166,7 +34184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="2:25" ht="15">
+    <row r="391" spans="2:25" ht="15.75">
       <c r="B391">
         <v>3</v>
       </c>
@@ -34204,7 +34222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="2:25" ht="15">
+    <row r="392" spans="2:25" ht="15.75">
       <c r="B392">
         <v>3</v>
       </c>
@@ -34242,7 +34260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="2:25" ht="15">
+    <row r="393" spans="2:25" ht="15.75">
       <c r="B393">
         <v>3</v>
       </c>
@@ -34280,7 +34298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="2:25" ht="15">
+    <row r="394" spans="2:25" ht="15.75">
       <c r="B394">
         <v>3</v>
       </c>
@@ -34318,7 +34336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="2:25" ht="15">
+    <row r="395" spans="2:25" ht="15.75">
       <c r="B395">
         <v>3</v>
       </c>
@@ -34356,7 +34374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="2:25" ht="15">
+    <row r="396" spans="2:25" ht="15.75">
       <c r="B396">
         <v>3</v>
       </c>
@@ -34394,7 +34412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="2:25" ht="15">
+    <row r="397" spans="2:25" ht="15.75">
       <c r="B397">
         <v>3</v>
       </c>
@@ -34432,7 +34450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="2:25" ht="15">
+    <row r="398" spans="2:25" ht="15.75">
       <c r="B398">
         <v>3</v>
       </c>
@@ -34470,7 +34488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="2:25" ht="15">
+    <row r="399" spans="2:25" ht="15.75">
       <c r="B399">
         <v>3</v>
       </c>
@@ -34508,7 +34526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="2:25" ht="15">
+    <row r="400" spans="2:25" ht="15.75">
       <c r="B400">
         <v>3</v>
       </c>
@@ -34546,7 +34564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="2:25" ht="15">
+    <row r="401" spans="2:25" ht="15.75">
       <c r="B401">
         <v>3</v>
       </c>
@@ -34584,7 +34602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="2:25" ht="15">
+    <row r="402" spans="2:25" ht="15.75">
       <c r="B402">
         <v>3</v>
       </c>
@@ -34622,7 +34640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="2:25" ht="15">
+    <row r="403" spans="2:25" ht="15.75">
       <c r="B403">
         <v>3</v>
       </c>
@@ -34660,7 +34678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="2:25" ht="15">
+    <row r="404" spans="2:25" ht="15.75">
       <c r="B404">
         <v>3</v>
       </c>
@@ -34698,7 +34716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="2:25" ht="15">
+    <row r="405" spans="2:25" ht="15.75">
       <c r="B405">
         <v>3</v>
       </c>
@@ -34736,7 +34754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="2:25" ht="15">
+    <row r="406" spans="2:25" ht="15.75">
       <c r="B406">
         <v>3</v>
       </c>
@@ -34774,7 +34792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="2:25" ht="15">
+    <row r="407" spans="2:25" ht="15.75">
       <c r="B407">
         <v>3</v>
       </c>
@@ -34812,7 +34830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="2:25" ht="15">
+    <row r="408" spans="2:25" ht="15.75">
       <c r="B408">
         <v>3</v>
       </c>
@@ -34850,7 +34868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="2:25" ht="15">
+    <row r="409" spans="2:25" ht="15.75">
       <c r="B409">
         <v>3</v>
       </c>
@@ -34888,7 +34906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="2:25" ht="15">
+    <row r="410" spans="2:25" ht="15.75">
       <c r="B410">
         <v>3</v>
       </c>
@@ -34926,7 +34944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="2:25" ht="15">
+    <row r="411" spans="2:25" ht="15.75">
       <c r="B411">
         <v>3</v>
       </c>
@@ -34964,7 +34982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="2:25" ht="15">
+    <row r="412" spans="2:25" ht="15.75">
       <c r="B412">
         <v>3</v>
       </c>
@@ -35002,7 +35020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="2:25" ht="15">
+    <row r="413" spans="2:25" ht="15.75">
       <c r="B413">
         <v>3</v>
       </c>
@@ -35040,7 +35058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="2:25" ht="15">
+    <row r="414" spans="2:25" ht="15.75">
       <c r="B414">
         <v>3</v>
       </c>
@@ -35078,7 +35096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="2:25" ht="15">
+    <row r="415" spans="2:25" ht="15.75">
       <c r="B415">
         <v>3</v>
       </c>
@@ -35116,7 +35134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="2:25" ht="15">
+    <row r="416" spans="2:25" ht="15.75">
       <c r="B416">
         <v>3</v>
       </c>
@@ -35154,7 +35172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="2:25" ht="15">
+    <row r="417" spans="2:25" ht="15.75">
       <c r="B417">
         <v>3</v>
       </c>
@@ -35192,7 +35210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="2:25" ht="15">
+    <row r="418" spans="2:25" ht="15.75">
       <c r="B418">
         <v>3</v>
       </c>
@@ -35230,7 +35248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="2:25" ht="15">
+    <row r="419" spans="2:25" ht="15.75">
       <c r="B419">
         <v>3</v>
       </c>
@@ -35268,7 +35286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="2:25" ht="15">
+    <row r="420" spans="2:25" ht="15.75">
       <c r="B420">
         <v>3</v>
       </c>
@@ -35306,7 +35324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="2:25" ht="15">
+    <row r="421" spans="2:25" ht="15.75">
       <c r="B421">
         <v>3</v>
       </c>
@@ -35344,7 +35362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="2:25" ht="15">
+    <row r="422" spans="2:25" ht="15.75">
       <c r="B422">
         <v>3</v>
       </c>
@@ -35382,7 +35400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="2:25" ht="15">
+    <row r="423" spans="2:25" ht="15.75">
       <c r="B423">
         <v>3</v>
       </c>
@@ -35420,7 +35438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="2:25" ht="15">
+    <row r="424" spans="2:25" ht="15.75">
       <c r="B424">
         <v>3</v>
       </c>
@@ -35458,7 +35476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="2:25" ht="15">
+    <row r="425" spans="2:25" ht="15.75">
       <c r="B425">
         <v>3</v>
       </c>
@@ -35496,7 +35514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="2:25" ht="15">
+    <row r="426" spans="2:25" ht="15.75">
       <c r="B426">
         <v>3</v>
       </c>
@@ -35534,7 +35552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="2:25" ht="15">
+    <row r="427" spans="2:25" ht="15.75">
       <c r="B427">
         <v>3</v>
       </c>
@@ -35572,7 +35590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="2:25" ht="15">
+    <row r="428" spans="2:25" ht="15.75">
       <c r="B428">
         <v>3</v>
       </c>
@@ -35610,7 +35628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="2:25" ht="15">
+    <row r="429" spans="2:25" ht="15.75">
       <c r="B429">
         <v>3</v>
       </c>
@@ -35648,7 +35666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="2:25" ht="15">
+    <row r="430" spans="2:25" ht="15.75">
       <c r="B430">
         <v>3</v>
       </c>
@@ -35686,7 +35704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="2:25" ht="15">
+    <row r="431" spans="2:25" ht="15.75">
       <c r="B431">
         <v>3</v>
       </c>
@@ -35724,7 +35742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="2:25" ht="15">
+    <row r="432" spans="2:25" ht="15.75">
       <c r="B432">
         <v>3</v>
       </c>
@@ -35762,7 +35780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="2:25" ht="15">
+    <row r="433" spans="2:25" ht="15.75">
       <c r="B433">
         <v>3</v>
       </c>
@@ -35800,7 +35818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="2:25" ht="15">
+    <row r="434" spans="2:25" ht="15.75">
       <c r="B434">
         <v>3</v>
       </c>
@@ -35838,7 +35856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="2:25" ht="15">
+    <row r="435" spans="2:25" ht="15.75">
       <c r="B435">
         <v>3</v>
       </c>
@@ -35876,7 +35894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="2:25" ht="15">
+    <row r="436" spans="2:25" ht="15.75">
       <c r="B436">
         <v>3</v>
       </c>
@@ -35914,7 +35932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="2:25" ht="15">
+    <row r="437" spans="2:25" ht="15.75">
       <c r="B437">
         <v>3</v>
       </c>
@@ -35952,7 +35970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="2:25" ht="15">
+    <row r="438" spans="2:25" ht="15.75">
       <c r="B438">
         <v>3</v>
       </c>
@@ -35990,7 +36008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="2:25" ht="15">
+    <row r="439" spans="2:25" ht="15.75">
       <c r="B439">
         <v>3</v>
       </c>
@@ -36028,7 +36046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="2:25" ht="15">
+    <row r="440" spans="2:25" ht="15.75">
       <c r="B440">
         <v>3</v>
       </c>
@@ -36066,7 +36084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="2:25" ht="15">
+    <row r="441" spans="2:25" ht="15.75">
       <c r="B441">
         <v>3</v>
       </c>
@@ -36104,7 +36122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="2:25" ht="15">
+    <row r="442" spans="2:25" ht="15.75">
       <c r="B442">
         <v>3</v>
       </c>
@@ -36142,7 +36160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="2:25" ht="15">
+    <row r="443" spans="2:25" ht="15.75">
       <c r="B443">
         <v>3</v>
       </c>
@@ -36180,7 +36198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="2:25" ht="15">
+    <row r="444" spans="2:25" ht="15.75">
       <c r="B444">
         <v>3</v>
       </c>
@@ -36218,7 +36236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="2:25" ht="15">
+    <row r="445" spans="2:25" ht="15.75">
       <c r="B445">
         <v>3</v>
       </c>
@@ -36256,7 +36274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="2:25" ht="15">
+    <row r="446" spans="2:25" ht="15.75">
       <c r="B446">
         <v>3</v>
       </c>
@@ -36294,7 +36312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="2:25" ht="15">
+    <row r="447" spans="2:25" ht="15.75">
       <c r="B447">
         <v>3</v>
       </c>
@@ -36332,7 +36350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="2:25" ht="15">
+    <row r="448" spans="2:25" ht="15.75">
       <c r="B448">
         <v>3</v>
       </c>
@@ -36370,7 +36388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="2:25" ht="15">
+    <row r="449" spans="2:25" ht="15.75">
       <c r="B449">
         <v>3</v>
       </c>
@@ -36408,7 +36426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="2:25" ht="15">
+    <row r="450" spans="2:25" ht="15.75">
       <c r="B450">
         <v>3</v>
       </c>
@@ -36446,7 +36464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="2:25" ht="15">
+    <row r="451" spans="2:25" ht="15.75">
       <c r="B451">
         <v>3</v>
       </c>
@@ -36484,7 +36502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="2:25" ht="15">
+    <row r="452" spans="2:25" ht="15.75">
       <c r="B452">
         <v>3</v>
       </c>
@@ -36522,7 +36540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="2:25" ht="15">
+    <row r="453" spans="2:25" ht="15.75">
       <c r="B453">
         <v>3</v>
       </c>
@@ -36560,7 +36578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="2:25" ht="15">
+    <row r="454" spans="2:25" ht="15.75">
       <c r="B454">
         <v>3</v>
       </c>
@@ -36598,7 +36616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="2:25" ht="15">
+    <row r="455" spans="2:25" ht="15.75">
       <c r="B455">
         <v>3</v>
       </c>
@@ -36636,7 +36654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="2:25" ht="15">
+    <row r="456" spans="2:25" ht="15.75">
       <c r="B456">
         <v>3</v>
       </c>
@@ -36674,7 +36692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="2:25" ht="15">
+    <row r="457" spans="2:25" ht="15.75">
       <c r="B457">
         <v>3</v>
       </c>
@@ -36712,7 +36730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="2:25" ht="15">
+    <row r="458" spans="2:25" ht="15.75">
       <c r="B458">
         <v>3</v>
       </c>
@@ -36750,7 +36768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="2:25" ht="15">
+    <row r="459" spans="2:25" ht="15.75">
       <c r="B459">
         <v>3</v>
       </c>
@@ -36788,7 +36806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="2:25" ht="15">
+    <row r="460" spans="2:25" ht="15.75">
       <c r="B460">
         <v>3</v>
       </c>
@@ -36826,7 +36844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="2:25" ht="15">
+    <row r="461" spans="2:25" ht="15.75">
       <c r="B461">
         <v>3</v>
       </c>
@@ -36864,7 +36882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="2:25" ht="15">
+    <row r="462" spans="2:25" ht="15.75">
       <c r="B462">
         <v>3</v>
       </c>
@@ -36902,7 +36920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="2:25" ht="15">
+    <row r="463" spans="2:25" ht="15.75">
       <c r="B463">
         <v>3</v>
       </c>
@@ -36940,7 +36958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="2:25" ht="15">
+    <row r="464" spans="2:25" ht="15.75">
       <c r="B464">
         <v>3</v>
       </c>
@@ -36978,7 +36996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="2:25" ht="15">
+    <row r="465" spans="2:25" ht="15.75">
       <c r="B465">
         <v>3</v>
       </c>
@@ -37016,7 +37034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="2:25" ht="15">
+    <row r="466" spans="2:25" ht="15.75">
       <c r="B466">
         <v>3</v>
       </c>
@@ -37054,7 +37072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="2:25" ht="15">
+    <row r="467" spans="2:25" ht="15.75">
       <c r="B467">
         <v>3</v>
       </c>
@@ -37092,7 +37110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="2:25" ht="15">
+    <row r="468" spans="2:25" ht="15.75">
       <c r="B468">
         <v>3</v>
       </c>
@@ -37130,7 +37148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="2:25" ht="15">
+    <row r="469" spans="2:25" ht="15.75">
       <c r="B469">
         <v>3</v>
       </c>
@@ -37168,7 +37186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="2:25" ht="15">
+    <row r="470" spans="2:25" ht="15.75">
       <c r="B470">
         <v>3</v>
       </c>
@@ -37206,7 +37224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="2:25" ht="15">
+    <row r="471" spans="2:25" ht="15.75">
       <c r="B471">
         <v>3</v>
       </c>
@@ -37244,7 +37262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="2:25" ht="15">
+    <row r="472" spans="2:25" ht="15.75">
       <c r="B472">
         <v>3</v>
       </c>
@@ -37282,7 +37300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="2:25" ht="15">
+    <row r="473" spans="2:25" ht="15.75">
       <c r="B473">
         <v>3</v>
       </c>
@@ -37320,7 +37338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="2:25" ht="15">
+    <row r="474" spans="2:25" ht="15.75">
       <c r="B474">
         <v>3</v>
       </c>
@@ -37358,7 +37376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="2:25" ht="15">
+    <row r="475" spans="2:25" ht="15.75">
       <c r="B475">
         <v>3</v>
       </c>
@@ -37396,7 +37414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="2:25" ht="15">
+    <row r="476" spans="2:25" ht="15.75">
       <c r="B476">
         <v>3</v>
       </c>
@@ -37434,7 +37452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="2:25" ht="15">
+    <row r="477" spans="2:25" ht="15.75">
       <c r="B477">
         <v>3</v>
       </c>
@@ -37472,7 +37490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="2:25" ht="15">
+    <row r="478" spans="2:25" ht="15.75">
       <c r="B478">
         <v>3</v>
       </c>
@@ -37510,7 +37528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="2:25" ht="15">
+    <row r="479" spans="2:25" ht="15.75">
       <c r="B479">
         <v>3</v>
       </c>
@@ -37548,7 +37566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="2:25" ht="15">
+    <row r="480" spans="2:25" ht="15.75">
       <c r="B480">
         <v>3</v>
       </c>
@@ -37586,7 +37604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="2:25" ht="15">
+    <row r="481" spans="2:25" ht="15.75">
       <c r="B481">
         <v>3</v>
       </c>
@@ -37624,7 +37642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="2:25" ht="15">
+    <row r="482" spans="2:25" ht="15.75">
       <c r="B482">
         <v>3</v>
       </c>
@@ -37662,7 +37680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="2:25" ht="15">
+    <row r="483" spans="2:25" ht="15.75">
       <c r="B483">
         <v>3</v>
       </c>
@@ -37700,7 +37718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="2:25" ht="15">
+    <row r="484" spans="2:25" ht="15.75">
       <c r="B484">
         <v>3</v>
       </c>
@@ -37738,7 +37756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="2:25" ht="15">
+    <row r="485" spans="2:25" ht="15.75">
       <c r="B485">
         <v>3</v>
       </c>
@@ -37776,7 +37794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="2:25" ht="15">
+    <row r="486" spans="2:25" ht="15.75">
       <c r="B486">
         <v>3</v>
       </c>
@@ -37814,7 +37832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="2:25" ht="15">
+    <row r="487" spans="2:25" ht="15.75">
       <c r="B487">
         <v>3</v>
       </c>
@@ -37852,7 +37870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="2:25" ht="15">
+    <row r="488" spans="2:25" ht="15.75">
       <c r="B488">
         <v>3</v>
       </c>
@@ -37890,7 +37908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="2:25" ht="15">
+    <row r="489" spans="2:25" ht="15.75">
       <c r="B489">
         <v>3</v>
       </c>
@@ -37928,7 +37946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="2:25" ht="15">
+    <row r="490" spans="2:25" ht="15.75">
       <c r="B490">
         <v>3</v>
       </c>
@@ -37966,7 +37984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="2:25" ht="15">
+    <row r="491" spans="2:25" ht="15.75">
       <c r="B491">
         <v>3</v>
       </c>
@@ -38004,7 +38022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="2:25" ht="15">
+    <row r="492" spans="2:25" ht="15.75">
       <c r="B492">
         <v>3</v>
       </c>
@@ -38042,7 +38060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="2:25" ht="15">
+    <row r="493" spans="2:25" ht="15.75">
       <c r="B493">
         <v>3</v>
       </c>
@@ -38080,7 +38098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="2:25" ht="15">
+    <row r="494" spans="2:25" ht="15.75">
       <c r="B494">
         <v>3</v>
       </c>
@@ -38118,7 +38136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="2:25" ht="15">
+    <row r="495" spans="2:25" ht="15.75">
       <c r="B495">
         <v>3</v>
       </c>
@@ -38156,7 +38174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="2:25" ht="15">
+    <row r="496" spans="2:25" ht="15.75">
       <c r="B496">
         <v>3</v>
       </c>
@@ -38194,7 +38212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="2:25" ht="15">
+    <row r="497" spans="2:25" ht="15.75">
       <c r="B497">
         <v>3</v>
       </c>
@@ -38232,7 +38250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="2:25" ht="15">
+    <row r="498" spans="2:25" ht="15.75">
       <c r="B498">
         <v>3</v>
       </c>
@@ -38270,7 +38288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="2:25" ht="15">
+    <row r="499" spans="2:25" ht="15.75">
       <c r="B499">
         <v>3</v>
       </c>
@@ -38308,7 +38326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="2:25" ht="15">
+    <row r="500" spans="2:25" ht="15.75">
       <c r="B500">
         <v>3</v>
       </c>
@@ -38346,7 +38364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="2:25" ht="15">
+    <row r="501" spans="2:25" ht="15.75">
       <c r="B501">
         <v>3</v>
       </c>
@@ -38384,7 +38402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="2:25" ht="15">
+    <row r="502" spans="2:25" ht="15.75">
       <c r="B502">
         <v>3</v>
       </c>
@@ -38422,7 +38440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="2:25" ht="15">
+    <row r="503" spans="2:25" ht="15.75">
       <c r="B503">
         <v>3</v>
       </c>
@@ -38460,7 +38478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="2:25" ht="15">
+    <row r="504" spans="2:25" ht="15.75">
       <c r="B504">
         <v>3</v>
       </c>
@@ -38498,7 +38516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="2:25" ht="15">
+    <row r="505" spans="2:25" ht="15.75">
       <c r="B505">
         <v>3</v>
       </c>
@@ -38536,7 +38554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="2:25" ht="15">
+    <row r="506" spans="2:25" ht="15.75">
       <c r="B506">
         <v>3</v>
       </c>
@@ -38574,7 +38592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="2:25" ht="15">
+    <row r="507" spans="2:25" ht="15.75">
       <c r="B507">
         <v>3</v>
       </c>
@@ -38612,7 +38630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="2:25" ht="15">
+    <row r="508" spans="2:25" ht="15.75">
       <c r="B508">
         <v>3</v>
       </c>
@@ -38650,7 +38668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="2:25" ht="15">
+    <row r="509" spans="2:25" ht="15.75">
       <c r="B509">
         <v>3</v>
       </c>
@@ -38688,7 +38706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="2:25" ht="15">
+    <row r="510" spans="2:25" ht="15.75">
       <c r="B510">
         <v>3</v>
       </c>
@@ -38726,7 +38744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="2:25" ht="15">
+    <row r="511" spans="2:25" ht="15.75">
       <c r="B511">
         <v>3</v>
       </c>
@@ -38764,7 +38782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="2:25" ht="15">
+    <row r="512" spans="2:25" ht="15.75">
       <c r="B512">
         <v>3</v>
       </c>
@@ -38802,7 +38820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="2:25" ht="15">
+    <row r="513" spans="2:25" ht="15.75">
       <c r="B513">
         <v>3</v>
       </c>
@@ -38840,7 +38858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="2:25" ht="15">
+    <row r="514" spans="2:25" ht="15.75">
       <c r="B514">
         <v>3</v>
       </c>
@@ -38878,7 +38896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="2:25" ht="15">
+    <row r="515" spans="2:25" ht="15.75">
       <c r="B515">
         <v>3</v>
       </c>
@@ -38916,7 +38934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="2:25" ht="15">
+    <row r="516" spans="2:25" ht="15.75">
       <c r="B516">
         <v>3</v>
       </c>
@@ -38954,7 +38972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="2:25" ht="15">
+    <row r="517" spans="2:25" ht="15.75">
       <c r="B517">
         <v>3</v>
       </c>
@@ -38992,7 +39010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="2:25" ht="15">
+    <row r="518" spans="2:25" ht="15.75">
       <c r="B518">
         <v>3</v>
       </c>
@@ -39030,7 +39048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="2:25" ht="15">
+    <row r="519" spans="2:25" ht="15.75">
       <c r="B519">
         <v>3</v>
       </c>
@@ -39068,7 +39086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="2:25" ht="15">
+    <row r="520" spans="2:25" ht="15.75">
       <c r="B520">
         <v>3</v>
       </c>
@@ -39106,7 +39124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="2:25" ht="15">
+    <row r="521" spans="2:25" ht="15.75">
       <c r="B521">
         <v>3</v>
       </c>
@@ -39144,7 +39162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="2:25" ht="15">
+    <row r="522" spans="2:25" ht="15.75">
       <c r="B522">
         <v>3</v>
       </c>
@@ -39182,7 +39200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="2:25" ht="15">
+    <row r="523" spans="2:25" ht="15.75">
       <c r="B523">
         <v>3</v>
       </c>
@@ -39220,7 +39238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="2:25" ht="15">
+    <row r="524" spans="2:25" ht="15.75">
       <c r="B524">
         <v>3</v>
       </c>
@@ -39258,7 +39276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="2:25" ht="15">
+    <row r="525" spans="2:25" ht="15.75">
       <c r="B525">
         <v>3</v>
       </c>
@@ -39296,7 +39314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="2:25" ht="15">
+    <row r="526" spans="2:25" ht="15.75">
       <c r="B526">
         <v>3</v>
       </c>
@@ -39334,7 +39352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="2:25" ht="15">
+    <row r="527" spans="2:25" ht="15.75">
       <c r="B527">
         <v>3</v>
       </c>
@@ -39372,7 +39390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="2:25" ht="15">
+    <row r="528" spans="2:25" ht="15.75">
       <c r="B528">
         <v>3</v>
       </c>
@@ -39410,7 +39428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="2:25" ht="15">
+    <row r="529" spans="2:25" ht="15.75">
       <c r="B529">
         <v>3</v>
       </c>
@@ -39448,7 +39466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="2:25" ht="15">
+    <row r="530" spans="2:25" ht="15.75">
       <c r="B530">
         <v>3</v>
       </c>
@@ -39486,7 +39504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="2:25" ht="15">
+    <row r="531" spans="2:25" ht="15.75">
       <c r="B531">
         <v>3</v>
       </c>
@@ -39524,7 +39542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="2:25" ht="15">
+    <row r="532" spans="2:25" ht="15.75">
       <c r="B532">
         <v>3</v>
       </c>
@@ -39562,7 +39580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="2:25" ht="15">
+    <row r="533" spans="2:25" ht="15.75">
       <c r="B533">
         <v>3</v>
       </c>
@@ -39600,7 +39618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="2:25" ht="15">
+    <row r="534" spans="2:25" ht="15.75">
       <c r="B534">
         <v>3</v>
       </c>
@@ -39638,7 +39656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="2:25" ht="15">
+    <row r="535" spans="2:25" ht="15.75">
       <c r="B535">
         <v>3</v>
       </c>
@@ -39676,7 +39694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="2:25" ht="15">
+    <row r="536" spans="2:25" ht="15.75">
       <c r="B536">
         <v>3</v>
       </c>
@@ -39714,7 +39732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="2:25" ht="15">
+    <row r="537" spans="2:25" ht="15.75">
       <c r="B537">
         <v>3</v>
       </c>
@@ -39752,7 +39770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="2:25" ht="15">
+    <row r="538" spans="2:25" ht="15.75">
       <c r="B538">
         <v>3</v>
       </c>
@@ -39790,7 +39808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="2:25" ht="15">
+    <row r="539" spans="2:25" ht="15.75">
       <c r="B539">
         <v>3</v>
       </c>
@@ -39828,7 +39846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="2:25" ht="15">
+    <row r="540" spans="2:25" ht="15.75">
       <c r="B540">
         <v>3</v>
       </c>
@@ -39866,7 +39884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="2:25" ht="15">
+    <row r="541" spans="2:25" ht="15.75">
       <c r="B541">
         <v>3</v>
       </c>
@@ -39904,7 +39922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="2:25" ht="15">
+    <row r="542" spans="2:25" ht="15.75">
       <c r="B542">
         <v>3</v>
       </c>
@@ -39942,7 +39960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="2:25" ht="15">
+    <row r="543" spans="2:25" ht="15.75">
       <c r="B543">
         <v>3</v>
       </c>
@@ -39980,7 +39998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="2:25" ht="15">
+    <row r="544" spans="2:25" ht="15.75">
       <c r="B544">
         <v>3</v>
       </c>
@@ -40018,7 +40036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="2:25" ht="15">
+    <row r="545" spans="2:25" ht="15.75">
       <c r="B545">
         <v>3</v>
       </c>
@@ -40056,7 +40074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="2:25" ht="15">
+    <row r="546" spans="2:25" ht="15.75">
       <c r="B546">
         <v>3</v>
       </c>
@@ -40094,7 +40112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="2:25" ht="15">
+    <row r="547" spans="2:25" ht="15.75">
       <c r="B547">
         <v>3</v>
       </c>
@@ -40132,7 +40150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="2:25" ht="15">
+    <row r="548" spans="2:25" ht="15.75">
       <c r="B548">
         <v>3</v>
       </c>
@@ -40170,7 +40188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="2:25" ht="15">
+    <row r="549" spans="2:25" ht="15.75">
       <c r="B549">
         <v>3</v>
       </c>
@@ -40208,7 +40226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="2:25" ht="15">
+    <row r="550" spans="2:25" ht="15.75">
       <c r="B550">
         <v>3</v>
       </c>
@@ -40246,7 +40264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="2:25" ht="15">
+    <row r="551" spans="2:25" ht="15.75">
       <c r="B551">
         <v>3</v>
       </c>
@@ -40284,7 +40302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="2:25" ht="15">
+    <row r="552" spans="2:25" ht="15.75">
       <c r="B552">
         <v>3</v>
       </c>
@@ -40322,7 +40340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="2:25" ht="15">
+    <row r="553" spans="2:25" ht="15.75">
       <c r="B553">
         <v>3</v>
       </c>
@@ -40360,7 +40378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="2:25" ht="15">
+    <row r="554" spans="2:25" ht="15.75">
       <c r="B554">
         <v>3</v>
       </c>
@@ -40398,7 +40416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="2:25" ht="15">
+    <row r="555" spans="2:25" ht="15.75">
       <c r="B555">
         <v>3</v>
       </c>
@@ -40436,7 +40454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="2:25" ht="15">
+    <row r="556" spans="2:25" ht="15.75">
       <c r="B556">
         <v>3</v>
       </c>
@@ -40474,7 +40492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="2:25" ht="15">
+    <row r="557" spans="2:25" ht="15.75">
       <c r="B557">
         <v>3</v>
       </c>
@@ -40512,7 +40530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="2:25" ht="15">
+    <row r="558" spans="2:25" ht="15.75">
       <c r="B558">
         <v>3</v>
       </c>
@@ -40550,7 +40568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="2:25" ht="15">
+    <row r="559" spans="2:25" ht="15.75">
       <c r="B559">
         <v>3</v>
       </c>
@@ -40588,7 +40606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="2:25" ht="15">
+    <row r="560" spans="2:25" ht="15.75">
       <c r="B560">
         <v>3</v>
       </c>
@@ -40626,7 +40644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="2:25" ht="15">
+    <row r="561" spans="2:25" ht="15.75">
       <c r="B561">
         <v>3</v>
       </c>
@@ -40664,7 +40682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="2:25" ht="15">
+    <row r="562" spans="2:25" ht="15.75">
       <c r="B562">
         <v>3</v>
       </c>
@@ -40702,7 +40720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="2:25" ht="15">
+    <row r="563" spans="2:25" ht="15.75">
       <c r="B563">
         <v>3</v>
       </c>
@@ -40740,7 +40758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="2:25" ht="15">
+    <row r="564" spans="2:25" ht="15.75">
       <c r="B564">
         <v>3</v>
       </c>
@@ -40778,7 +40796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="2:25" ht="15">
+    <row r="565" spans="2:25" ht="15.75">
       <c r="B565">
         <v>3</v>
       </c>
@@ -40816,7 +40834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="2:25" ht="15">
+    <row r="566" spans="2:25" ht="15.75">
       <c r="B566">
         <v>3</v>
       </c>
@@ -40854,7 +40872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="2:25" ht="15">
+    <row r="567" spans="2:25" ht="15.75">
       <c r="B567">
         <v>3</v>
       </c>
@@ -40892,7 +40910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="2:25" ht="15">
+    <row r="568" spans="2:25" ht="15.75">
       <c r="B568">
         <v>3</v>
       </c>
@@ -40930,7 +40948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="2:25" ht="15">
+    <row r="569" spans="2:25" ht="15.75">
       <c r="B569">
         <v>3</v>
       </c>
@@ -40968,7 +40986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="2:25" ht="15">
+    <row r="570" spans="2:25" ht="15.75">
       <c r="B570">
         <v>3</v>
       </c>
@@ -41006,7 +41024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="2:25" ht="15">
+    <row r="571" spans="2:25" ht="15.75">
       <c r="B571">
         <v>3</v>
       </c>
@@ -41044,7 +41062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="2:25" ht="15">
+    <row r="572" spans="2:25" ht="15.75">
       <c r="B572">
         <v>3</v>
       </c>
@@ -41082,7 +41100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="2:25" ht="15">
+    <row r="573" spans="2:25" ht="15.75">
       <c r="B573">
         <v>3</v>
       </c>
@@ -41120,7 +41138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="2:25" ht="15">
+    <row r="574" spans="2:25" ht="15.75">
       <c r="B574">
         <v>3</v>
       </c>
@@ -41158,7 +41176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="2:25" ht="15">
+    <row r="575" spans="2:25" ht="15.75">
       <c r="B575">
         <v>3</v>
       </c>
@@ -41196,7 +41214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="2:25" ht="15">
+    <row r="576" spans="2:25" ht="15.75">
       <c r="B576">
         <v>3</v>
       </c>
@@ -41234,7 +41252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="2:25" ht="15">
+    <row r="577" spans="2:25" ht="15.75">
       <c r="B577">
         <v>3</v>
       </c>
@@ -41272,7 +41290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="2:25" ht="15">
+    <row r="578" spans="2:25" ht="15.75">
       <c r="B578">
         <v>3</v>
       </c>
@@ -41310,7 +41328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="2:25" ht="15">
+    <row r="579" spans="2:25" ht="15.75">
       <c r="B579">
         <v>3</v>
       </c>
@@ -41348,7 +41366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="2:25" ht="15">
+    <row r="580" spans="2:25" ht="15.75">
       <c r="B580">
         <v>3</v>
       </c>
@@ -41386,7 +41404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="2:25" ht="15">
+    <row r="581" spans="2:25" ht="15.75">
       <c r="B581">
         <v>3</v>
       </c>
@@ -41424,7 +41442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="2:25" ht="15">
+    <row r="582" spans="2:25" ht="15.75">
       <c r="B582">
         <v>3</v>
       </c>
@@ -41462,7 +41480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="2:25" ht="15">
+    <row r="583" spans="2:25" ht="15.75">
       <c r="B583">
         <v>3</v>
       </c>
@@ -41500,7 +41518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="2:25" ht="15">
+    <row r="584" spans="2:25" ht="15.75">
       <c r="B584">
         <v>3</v>
       </c>
@@ -41538,7 +41556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="2:25" ht="15">
+    <row r="585" spans="2:25" ht="15.75">
       <c r="B585">
         <v>3</v>
       </c>
@@ -41576,7 +41594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="2:25" ht="15">
+    <row r="586" spans="2:25" ht="15.75">
       <c r="B586">
         <v>3</v>
       </c>
@@ -41614,7 +41632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="2:25" ht="15">
+    <row r="587" spans="2:25" ht="15.75">
       <c r="B587">
         <v>3</v>
       </c>
@@ -41652,7 +41670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="2:25" ht="15">
+    <row r="588" spans="2:25" ht="15.75">
       <c r="B588">
         <v>3</v>
       </c>
@@ -41690,7 +41708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="2:25" ht="15">
+    <row r="589" spans="2:25" ht="15.75">
       <c r="B589">
         <v>3</v>
       </c>
@@ -41728,7 +41746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="2:25" ht="15">
+    <row r="590" spans="2:25" ht="15.75">
       <c r="B590">
         <v>3</v>
       </c>
@@ -41766,7 +41784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="2:25" ht="15">
+    <row r="591" spans="2:25" ht="15.75">
       <c r="B591">
         <v>3</v>
       </c>
@@ -41804,7 +41822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="2:25" ht="15">
+    <row r="592" spans="2:25" ht="15.75">
       <c r="B592">
         <v>3</v>
       </c>
@@ -41842,7 +41860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="2:25" ht="15">
+    <row r="593" spans="2:25" ht="15.75">
       <c r="B593">
         <v>3</v>
       </c>
@@ -41880,7 +41898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="2:25" ht="15">
+    <row r="594" spans="2:25" ht="15.75">
       <c r="B594">
         <v>3</v>
       </c>
@@ -41918,7 +41936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="2:25" ht="15">
+    <row r="595" spans="2:25" ht="15.75">
       <c r="B595">
         <v>3</v>
       </c>
@@ -41956,7 +41974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="2:25" ht="15">
+    <row r="596" spans="2:25" ht="15.75">
       <c r="B596">
         <v>3</v>
       </c>
@@ -41994,7 +42012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="2:25" ht="15">
+    <row r="597" spans="2:25" ht="15.75">
       <c r="B597">
         <v>3</v>
       </c>
@@ -42032,7 +42050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="2:25" ht="15">
+    <row r="598" spans="2:25" ht="15.75">
       <c r="B598">
         <v>3</v>
       </c>
@@ -42070,7 +42088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="2:25" ht="15">
+    <row r="599" spans="2:25" ht="15.75">
       <c r="B599">
         <v>3</v>
       </c>
@@ -42108,7 +42126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="2:25" ht="15">
+    <row r="600" spans="2:25" ht="15.75">
       <c r="B600">
         <v>3</v>
       </c>
@@ -42146,7 +42164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="2:25" ht="15">
+    <row r="601" spans="2:25" ht="15.75">
       <c r="B601">
         <v>3</v>
       </c>
@@ -42184,7 +42202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="2:25" ht="15">
+    <row r="602" spans="2:25" ht="15.75">
       <c r="B602">
         <v>3</v>
       </c>
@@ -42222,7 +42240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="2:25" ht="15">
+    <row r="603" spans="2:25" ht="15.75">
       <c r="B603">
         <v>3</v>
       </c>
@@ -42260,7 +42278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="2:25" ht="15">
+    <row r="604" spans="2:25" ht="15.75">
       <c r="B604">
         <v>3</v>
       </c>
@@ -42298,7 +42316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="2:25" ht="15">
+    <row r="605" spans="2:25" ht="15.75">
       <c r="B605">
         <v>3</v>
       </c>
@@ -42336,7 +42354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="2:25" ht="15">
+    <row r="606" spans="2:25" ht="15.75">
       <c r="B606">
         <v>3</v>
       </c>
@@ -42374,7 +42392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="2:25" ht="15">
+    <row r="607" spans="2:25" ht="15.75">
       <c r="B607">
         <v>3</v>
       </c>
@@ -42412,7 +42430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="2:25" ht="15">
+    <row r="608" spans="2:25" ht="15.75">
       <c r="B608">
         <v>3</v>
       </c>
@@ -42450,7 +42468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="2:25" ht="15">
+    <row r="609" spans="2:25" ht="15.75">
       <c r="B609">
         <v>3</v>
       </c>
@@ -42488,7 +42506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="2:25" ht="15">
+    <row r="610" spans="2:25" ht="15.75">
       <c r="B610">
         <v>3</v>
       </c>
@@ -42526,7 +42544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="2:25" ht="15">
+    <row r="611" spans="2:25" ht="15.75">
       <c r="B611">
         <v>3</v>
       </c>
@@ -42564,7 +42582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="2:25" ht="15">
+    <row r="612" spans="2:25" ht="15.75">
       <c r="B612">
         <v>3</v>
       </c>
@@ -42602,7 +42620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="2:25" ht="15">
+    <row r="613" spans="2:25" ht="15.75">
       <c r="B613">
         <v>3</v>
       </c>
@@ -42640,7 +42658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="2:25" ht="15">
+    <row r="614" spans="2:25" ht="15.75">
       <c r="B614">
         <v>3</v>
       </c>
@@ -42678,7 +42696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="2:25" ht="15">
+    <row r="615" spans="2:25" ht="15.75">
       <c r="B615">
         <v>3</v>
       </c>
@@ -42716,7 +42734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="2:25" ht="15">
+    <row r="616" spans="2:25" ht="15.75">
       <c r="B616">
         <v>3</v>
       </c>
@@ -42754,7 +42772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="2:25" ht="15">
+    <row r="617" spans="2:25" ht="15.75">
       <c r="B617">
         <v>3</v>
       </c>
@@ -42792,7 +42810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="2:25" ht="15">
+    <row r="618" spans="2:25" ht="15.75">
       <c r="B618">
         <v>3</v>
       </c>
@@ -42830,7 +42848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="2:25" ht="15">
+    <row r="619" spans="2:25" ht="15.75">
       <c r="B619">
         <v>3</v>
       </c>
@@ -42868,7 +42886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="2:25" ht="15">
+    <row r="620" spans="2:25" ht="15.75">
       <c r="B620">
         <v>3</v>
       </c>
@@ -42906,7 +42924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="2:25" ht="15">
+    <row r="621" spans="2:25" ht="15.75">
       <c r="B621">
         <v>3</v>
       </c>
@@ -42944,7 +42962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="2:25" ht="15">
+    <row r="622" spans="2:25" ht="15.75">
       <c r="B622">
         <v>3</v>
       </c>
@@ -42982,7 +43000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="2:25" ht="15">
+    <row r="623" spans="2:25" ht="15.75">
       <c r="B623">
         <v>3</v>
       </c>
@@ -43020,7 +43038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="2:25" ht="15">
+    <row r="624" spans="2:25" ht="15.75">
       <c r="B624">
         <v>3</v>
       </c>
@@ -43058,7 +43076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="2:25" ht="15">
+    <row r="625" spans="2:25" ht="15.75">
       <c r="B625">
         <v>3</v>
       </c>
@@ -43096,7 +43114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="2:25" ht="15">
+    <row r="626" spans="2:25" ht="15.75">
       <c r="B626">
         <v>3</v>
       </c>
@@ -43134,7 +43152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="2:25" ht="15">
+    <row r="627" spans="2:25" ht="15.75">
       <c r="B627">
         <v>3</v>
       </c>
@@ -43172,7 +43190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="2:25" ht="15">
+    <row r="628" spans="2:25" ht="15.75">
       <c r="B628">
         <v>3</v>
       </c>
@@ -43210,7 +43228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="2:25" ht="15">
+    <row r="629" spans="2:25" ht="15.75">
       <c r="B629">
         <v>3</v>
       </c>
@@ -43248,7 +43266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="2:25" ht="15">
+    <row r="630" spans="2:25" ht="15.75">
       <c r="B630">
         <v>3</v>
       </c>
@@ -43286,7 +43304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="2:25" ht="15">
+    <row r="631" spans="2:25" ht="15.75">
       <c r="B631">
         <v>3</v>
       </c>
@@ -43324,7 +43342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="2:25" ht="15">
+    <row r="632" spans="2:25" ht="15.75">
       <c r="B632">
         <v>3</v>
       </c>
@@ -43362,7 +43380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="2:25" ht="15">
+    <row r="633" spans="2:25" ht="15.75">
       <c r="B633">
         <v>3</v>
       </c>
@@ -43400,7 +43418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="2:25" ht="15">
+    <row r="634" spans="2:25" ht="15.75">
       <c r="B634">
         <v>3</v>
       </c>
@@ -43438,7 +43456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="2:25" ht="15">
+    <row r="635" spans="2:25" ht="15.75">
       <c r="B635">
         <v>3</v>
       </c>
@@ -43476,7 +43494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="2:25" ht="15">
+    <row r="636" spans="2:25" ht="15.75">
       <c r="B636">
         <v>3</v>
       </c>
@@ -43514,7 +43532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="2:25" ht="15">
+    <row r="637" spans="2:25" ht="15.75">
       <c r="B637">
         <v>3</v>
       </c>
@@ -43552,7 +43570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="2:25" ht="15">
+    <row r="638" spans="2:25" ht="15.75">
       <c r="B638">
         <v>3</v>
       </c>
@@ -43590,7 +43608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="2:25" ht="15">
+    <row r="639" spans="2:25" ht="15.75">
       <c r="B639">
         <v>3</v>
       </c>
@@ -43628,7 +43646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="2:25" ht="15">
+    <row r="640" spans="2:25" ht="15.75">
       <c r="B640">
         <v>3</v>
       </c>
@@ -43666,7 +43684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="2:25" ht="15">
+    <row r="641" spans="2:25" ht="15.75">
       <c r="B641">
         <v>3</v>
       </c>
@@ -43704,7 +43722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="2:25" ht="15">
+    <row r="642" spans="2:25" ht="15.75">
       <c r="B642">
         <v>3</v>
       </c>
@@ -43742,7 +43760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="2:25" ht="15">
+    <row r="643" spans="2:25" ht="15.75">
       <c r="B643">
         <v>3</v>
       </c>
@@ -43780,7 +43798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="2:25" ht="15">
+    <row r="644" spans="2:25" ht="15.75">
       <c r="B644">
         <v>3</v>
       </c>
@@ -43818,7 +43836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="2:25" ht="15">
+    <row r="645" spans="2:25" ht="15.75">
       <c r="B645">
         <v>3</v>
       </c>
@@ -43856,7 +43874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="2:25" ht="15">
+    <row r="646" spans="2:25" ht="15.75">
       <c r="B646">
         <v>3</v>
       </c>
@@ -43894,7 +43912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="2:25" ht="15">
+    <row r="647" spans="2:25" ht="15.75">
       <c r="B647">
         <v>3</v>
       </c>
@@ -43932,7 +43950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="2:25" ht="15">
+    <row r="648" spans="2:25" ht="15.75">
       <c r="B648">
         <v>3</v>
       </c>
@@ -43970,7 +43988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="2:25" ht="15">
+    <row r="649" spans="2:25" ht="15.75">
       <c r="B649">
         <v>3</v>
       </c>
@@ -44008,7 +44026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="2:25" ht="15">
+    <row r="650" spans="2:25" ht="15.75">
       <c r="B650">
         <v>3</v>
       </c>
@@ -44046,7 +44064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="2:25" ht="15">
+    <row r="651" spans="2:25" ht="15.75">
       <c r="B651">
         <v>3</v>
       </c>
@@ -44084,7 +44102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="652" spans="2:25" ht="15">
+    <row r="652" spans="2:25" ht="15.75">
       <c r="B652">
         <v>3</v>
       </c>
@@ -44122,7 +44140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="2:25" ht="15">
+    <row r="653" spans="2:25" ht="15.75">
       <c r="B653">
         <v>3</v>
       </c>
@@ -44160,7 +44178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="2:25" ht="15">
+    <row r="654" spans="2:25" ht="15.75">
       <c r="B654">
         <v>3</v>
       </c>
@@ -44198,7 +44216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="2:25" ht="15">
+    <row r="655" spans="2:25" ht="15.75">
       <c r="B655">
         <v>3</v>
       </c>
@@ -44236,7 +44254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="2:25" ht="15">
+    <row r="656" spans="2:25" ht="15.75">
       <c r="B656">
         <v>3</v>
       </c>
@@ -44274,7 +44292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="2:25" ht="15">
+    <row r="657" spans="2:25" ht="15.75">
       <c r="B657">
         <v>3</v>
       </c>
@@ -44312,7 +44330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="2:25" ht="15">
+    <row r="658" spans="2:25" ht="15.75">
       <c r="B658">
         <v>3</v>
       </c>
@@ -44350,7 +44368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="2:25" ht="15">
+    <row r="659" spans="2:25" ht="15.75">
       <c r="B659">
         <v>3</v>
       </c>
@@ -44388,7 +44406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="2:25" ht="15">
+    <row r="660" spans="2:25" ht="15.75">
       <c r="B660">
         <v>3</v>
       </c>
@@ -44426,7 +44444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="2:25" ht="15">
+    <row r="661" spans="2:25" ht="15.75">
       <c r="B661">
         <v>3</v>
       </c>
@@ -44464,7 +44482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="2:25" ht="15">
+    <row r="662" spans="2:25" ht="15.75">
       <c r="B662">
         <v>3</v>
       </c>
@@ -44502,7 +44520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="2:25" ht="15">
+    <row r="663" spans="2:25" ht="15.75">
       <c r="B663">
         <v>3</v>
       </c>
@@ -44540,7 +44558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="2:25" ht="15">
+    <row r="664" spans="2:25" ht="15.75">
       <c r="B664">
         <v>3</v>
       </c>
@@ -44578,7 +44596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="2:25" ht="15">
+    <row r="665" spans="2:25" ht="15.75">
       <c r="B665">
         <v>3</v>
       </c>
@@ -44616,7 +44634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="2:25" ht="15">
+    <row r="666" spans="2:25" ht="15.75">
       <c r="B666">
         <v>3</v>
       </c>
@@ -44654,7 +44672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="2:25" ht="15">
+    <row r="667" spans="2:25" ht="15.75">
       <c r="B667">
         <v>3</v>
       </c>
@@ -44692,7 +44710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="2:25" ht="15">
+    <row r="668" spans="2:25" ht="15.75">
       <c r="B668">
         <v>3</v>
       </c>
@@ -44730,7 +44748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="2:25" ht="15">
+    <row r="669" spans="2:25" ht="15.75">
       <c r="B669">
         <v>3</v>
       </c>
@@ -44768,7 +44786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="2:25" ht="15">
+    <row r="670" spans="2:25" ht="15.75">
       <c r="B670">
         <v>3</v>
       </c>
@@ -44806,7 +44824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="2:25" ht="15">
+    <row r="671" spans="2:25" ht="15.75">
       <c r="B671">
         <v>3</v>
       </c>
@@ -44844,7 +44862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="2:25" ht="15">
+    <row r="672" spans="2:25" ht="15.75">
       <c r="B672">
         <v>3</v>
       </c>
@@ -44882,7 +44900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="2:25" ht="15">
+    <row r="673" spans="2:25" ht="15.75">
       <c r="B673">
         <v>3</v>
       </c>
@@ -44920,7 +44938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="2:25" ht="15">
+    <row r="674" spans="2:25" ht="15.75">
       <c r="B674">
         <v>3</v>
       </c>
@@ -44958,7 +44976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="2:25" ht="15">
+    <row r="675" spans="2:25" ht="15.75">
       <c r="B675">
         <v>3</v>
       </c>
@@ -44996,7 +45014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="2:25" ht="15">
+    <row r="676" spans="2:25" ht="15.75">
       <c r="B676">
         <v>3</v>
       </c>
@@ -45034,7 +45052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="2:25" ht="15">
+    <row r="677" spans="2:25" ht="15.75">
       <c r="B677">
         <v>3</v>
       </c>
@@ -45072,7 +45090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="2:25" ht="15">
+    <row r="678" spans="2:25" ht="15.75">
       <c r="B678">
         <v>3</v>
       </c>
@@ -45110,7 +45128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="2:25" ht="15">
+    <row r="679" spans="2:25" ht="15.75">
       <c r="B679">
         <v>3</v>
       </c>
@@ -45148,7 +45166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="2:25" ht="15">
+    <row r="680" spans="2:25" ht="15.75">
       <c r="B680">
         <v>3</v>
       </c>
@@ -45186,7 +45204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="2:25" ht="15">
+    <row r="681" spans="2:25" ht="15.75">
       <c r="B681">
         <v>3</v>
       </c>
@@ -45224,7 +45242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="2:25" ht="15">
+    <row r="682" spans="2:25" ht="15.75">
       <c r="B682">
         <v>3</v>
       </c>
@@ -45262,7 +45280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="2:25" ht="15">
+    <row r="683" spans="2:25" ht="15.75">
       <c r="B683">
         <v>3</v>
       </c>
@@ -45300,7 +45318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="2:25" ht="15">
+    <row r="684" spans="2:25" ht="15.75">
       <c r="B684">
         <v>3</v>
       </c>
@@ -45338,7 +45356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="2:25" ht="15">
+    <row r="685" spans="2:25" ht="15.75">
       <c r="B685">
         <v>3</v>
       </c>
@@ -45376,7 +45394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="2:25" ht="15">
+    <row r="686" spans="2:25" ht="15.75">
       <c r="B686">
         <v>3</v>
       </c>
@@ -45414,7 +45432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="2:25" ht="15">
+    <row r="687" spans="2:25" ht="15.75">
       <c r="B687">
         <v>3</v>
       </c>
@@ -45452,7 +45470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="2:25" ht="15">
+    <row r="688" spans="2:25" ht="15.75">
       <c r="B688">
         <v>3</v>
       </c>
@@ -45490,7 +45508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="2:25" ht="15">
+    <row r="689" spans="2:25" ht="15.75">
       <c r="B689">
         <v>3</v>
       </c>
@@ -45528,7 +45546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="2:25" ht="15">
+    <row r="690" spans="2:25" ht="15.75">
       <c r="B690">
         <v>3</v>
       </c>
@@ -45566,7 +45584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="2:25" ht="15">
+    <row r="691" spans="2:25" ht="15.75">
       <c r="B691">
         <v>3</v>
       </c>
@@ -45604,7 +45622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="2:25" ht="15">
+    <row r="692" spans="2:25" ht="15.75">
       <c r="B692">
         <v>3</v>
       </c>
@@ -45642,7 +45660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="2:25" ht="15">
+    <row r="693" spans="2:25" ht="15.75">
       <c r="B693">
         <v>3</v>
       </c>
@@ -45680,7 +45698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="2:25" ht="15">
+    <row r="694" spans="2:25" ht="15.75">
       <c r="B694">
         <v>3</v>
       </c>
@@ -45718,7 +45736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="2:25" ht="15">
+    <row r="695" spans="2:25" ht="15.75">
       <c r="B695">
         <v>3</v>
       </c>
@@ -45756,7 +45774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="2:25" ht="15">
+    <row r="696" spans="2:25" ht="15.75">
       <c r="B696">
         <v>3</v>
       </c>
@@ -45794,7 +45812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="2:25" ht="15">
+    <row r="697" spans="2:25" ht="15.75">
       <c r="B697">
         <v>3</v>
       </c>
@@ -45832,7 +45850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="2:25" ht="15">
+    <row r="698" spans="2:25" ht="15.75">
       <c r="B698">
         <v>3</v>
       </c>
@@ -45870,7 +45888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="2:25" ht="15">
+    <row r="699" spans="2:25" ht="15.75">
       <c r="B699">
         <v>3</v>
       </c>
@@ -45908,7 +45926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="2:25" ht="15">
+    <row r="700" spans="2:25" ht="15.75">
       <c r="B700">
         <v>3</v>
       </c>
@@ -45946,7 +45964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="2:25" ht="15">
+    <row r="701" spans="2:25" ht="15.75">
       <c r="B701">
         <v>3</v>
       </c>
@@ -45984,7 +46002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="2:25" ht="15">
+    <row r="702" spans="2:25" ht="15.75">
       <c r="B702">
         <v>3</v>
       </c>
@@ -46022,7 +46040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="2:25" ht="15">
+    <row r="703" spans="2:25" ht="15.75">
       <c r="B703">
         <v>3</v>
       </c>
@@ -46060,7 +46078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="2:25" ht="15">
+    <row r="704" spans="2:25" ht="15.75">
       <c r="B704">
         <v>3</v>
       </c>
@@ -46098,7 +46116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="2:25" ht="15">
+    <row r="705" spans="2:25" ht="15.75">
       <c r="B705">
         <v>3</v>
       </c>
@@ -46136,7 +46154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="2:25" ht="15">
+    <row r="706" spans="2:25" ht="15.75">
       <c r="B706">
         <v>3</v>
       </c>
@@ -46174,7 +46192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="2:25" ht="15">
+    <row r="707" spans="2:25" ht="15.75">
       <c r="B707">
         <v>3</v>
       </c>
@@ -46212,7 +46230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="2:25" ht="15">
+    <row r="708" spans="2:25" ht="15.75">
       <c r="B708">
         <v>3</v>
       </c>
@@ -46250,7 +46268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="2:25" ht="15">
+    <row r="709" spans="2:25" ht="15.75">
       <c r="B709">
         <v>3</v>
       </c>
@@ -46288,7 +46306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="2:25" ht="15">
+    <row r="710" spans="2:25" ht="15.75">
       <c r="B710">
         <v>3</v>
       </c>
@@ -46326,7 +46344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="2:25" ht="15">
+    <row r="711" spans="2:25" ht="15.75">
       <c r="B711">
         <v>3</v>
       </c>
@@ -46364,7 +46382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="2:25" ht="15">
+    <row r="712" spans="2:25" ht="15.75">
       <c r="B712">
         <v>3</v>
       </c>
@@ -46402,7 +46420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="2:25" ht="15">
+    <row r="713" spans="2:25" ht="15.75">
       <c r="B713">
         <v>3</v>
       </c>
@@ -46440,7 +46458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="2:25" ht="15">
+    <row r="714" spans="2:25" ht="15.75">
       <c r="B714">
         <v>3</v>
       </c>
@@ -46478,7 +46496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="2:25" ht="15">
+    <row r="715" spans="2:25" ht="15.75">
       <c r="B715">
         <v>3</v>
       </c>
@@ -46516,7 +46534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="2:25" ht="15">
+    <row r="716" spans="2:25" ht="15.75">
       <c r="B716">
         <v>3</v>
       </c>
@@ -46554,7 +46572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="2:25" ht="15">
+    <row r="717" spans="2:25" ht="15.75">
       <c r="B717">
         <v>3</v>
       </c>
@@ -46592,7 +46610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="2:25" ht="15">
+    <row r="718" spans="2:25" ht="15.75">
       <c r="B718">
         <v>3</v>
       </c>
@@ -46630,7 +46648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="2:25" ht="15">
+    <row r="719" spans="2:25" ht="15.75">
       <c r="B719">
         <v>3</v>
       </c>
@@ -46668,7 +46686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="2:25" ht="15">
+    <row r="720" spans="2:25" ht="15.75">
       <c r="B720">
         <v>3</v>
       </c>
@@ -46706,7 +46724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="2:25" ht="15">
+    <row r="721" spans="2:25" ht="15.75">
       <c r="B721">
         <v>3</v>
       </c>
@@ -46744,7 +46762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="2:25" ht="15">
+    <row r="722" spans="2:25" ht="15.75">
       <c r="B722">
         <v>3</v>
       </c>
@@ -46782,7 +46800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="2:25" ht="15">
+    <row r="723" spans="2:25" ht="15.75">
       <c r="B723">
         <v>3</v>
       </c>
@@ -46820,7 +46838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="2:25" ht="15">
+    <row r="724" spans="2:25" ht="15.75">
       <c r="B724">
         <v>3</v>
       </c>
@@ -46858,7 +46876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="2:25" ht="15">
+    <row r="725" spans="2:25" ht="15.75">
       <c r="B725">
         <v>3</v>
       </c>
@@ -46896,7 +46914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="2:25" ht="15">
+    <row r="726" spans="2:25" ht="15.75">
       <c r="B726">
         <v>3</v>
       </c>
@@ -46934,7 +46952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="2:25" ht="15">
+    <row r="727" spans="2:25" ht="15.75">
       <c r="B727">
         <v>3</v>
       </c>
@@ -46972,7 +46990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="2:25" ht="15">
+    <row r="728" spans="2:25" ht="15.75">
       <c r="B728">
         <v>3</v>
       </c>
@@ -47010,7 +47028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="2:25" ht="15">
+    <row r="729" spans="2:25" ht="15.75">
       <c r="B729">
         <v>3</v>
       </c>
@@ -47048,7 +47066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="2:25" ht="15">
+    <row r="730" spans="2:25" ht="15.75">
       <c r="B730">
         <v>3</v>
       </c>
@@ -47086,7 +47104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="2:25" ht="15">
+    <row r="731" spans="2:25" ht="15.75">
       <c r="B731">
         <v>3</v>
       </c>
@@ -47124,7 +47142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="2:25" ht="15">
+    <row r="732" spans="2:25" ht="15.75">
       <c r="B732">
         <v>3</v>
       </c>
@@ -47162,7 +47180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="2:25" ht="15">
+    <row r="733" spans="2:25" ht="15.75">
       <c r="B733">
         <v>3</v>
       </c>
@@ -47200,7 +47218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="2:25" ht="15">
+    <row r="734" spans="2:25" ht="15.75">
       <c r="B734">
         <v>3</v>
       </c>
@@ -47238,7 +47256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="2:25" ht="15">
+    <row r="735" spans="2:25" ht="15.75">
       <c r="B735">
         <v>3</v>
       </c>
@@ -47276,7 +47294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="2:25" ht="15">
+    <row r="736" spans="2:25" ht="15.75">
       <c r="B736">
         <v>3</v>
       </c>
@@ -47314,7 +47332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="2:25" ht="15">
+    <row r="737" spans="2:25" ht="15.75">
       <c r="B737">
         <v>3</v>
       </c>
@@ -47352,7 +47370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="2:25" ht="15">
+    <row r="738" spans="2:25" ht="15.75">
       <c r="B738">
         <v>3</v>
       </c>
@@ -47390,7 +47408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="2:25" ht="15">
+    <row r="739" spans="2:25" ht="15.75">
       <c r="B739">
         <v>3</v>
       </c>
@@ -47428,7 +47446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="2:25" ht="15">
+    <row r="740" spans="2:25" ht="15.75">
       <c r="B740">
         <v>3</v>
       </c>
@@ -47466,7 +47484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="2:25" ht="15">
+    <row r="741" spans="2:25" ht="15.75">
       <c r="B741">
         <v>3</v>
       </c>
@@ -47504,7 +47522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="2:25" ht="15">
+    <row r="742" spans="2:25" ht="15.75">
       <c r="B742">
         <v>3</v>
       </c>
@@ -47542,7 +47560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="2:25" ht="15">
+    <row r="743" spans="2:25" ht="15.75">
       <c r="B743">
         <v>3</v>
       </c>
@@ -47580,7 +47598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="2:25" ht="15">
+    <row r="744" spans="2:25" ht="15.75">
       <c r="B744">
         <v>3</v>
       </c>
@@ -47618,7 +47636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="2:25" ht="15">
+    <row r="745" spans="2:25" ht="15.75">
       <c r="B745">
         <v>3</v>
       </c>
@@ -47656,7 +47674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="2:25" ht="15">
+    <row r="746" spans="2:25" ht="15.75">
       <c r="B746">
         <v>3</v>
       </c>
@@ -47694,7 +47712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="2:25" ht="15">
+    <row r="747" spans="2:25" ht="15.75">
       <c r="B747">
         <v>3</v>
       </c>
@@ -47732,7 +47750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="2:25" ht="15">
+    <row r="748" spans="2:25" ht="15.75">
       <c r="B748">
         <v>3</v>
       </c>
@@ -47770,7 +47788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="2:25" ht="15">
+    <row r="749" spans="2:25" ht="15.75">
       <c r="B749">
         <v>3</v>
       </c>
@@ -47808,7 +47826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="2:25" ht="15">
+    <row r="750" spans="2:25" ht="15.75">
       <c r="B750">
         <v>3</v>
       </c>
@@ -47846,7 +47864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="2:25" ht="15">
+    <row r="751" spans="2:25" ht="15.75">
       <c r="B751">
         <v>3</v>
       </c>
@@ -47884,7 +47902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="2:25" ht="15">
+    <row r="752" spans="2:25" ht="15.75">
       <c r="B752">
         <v>3</v>
       </c>
@@ -47922,7 +47940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="2:25" ht="15">
+    <row r="753" spans="2:25" ht="15.75">
       <c r="B753">
         <v>3</v>
       </c>
@@ -47960,7 +47978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="2:25" ht="15">
+    <row r="754" spans="2:25" ht="15.75">
       <c r="B754">
         <v>3</v>
       </c>
@@ -47998,7 +48016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="2:25" ht="15">
+    <row r="755" spans="2:25" ht="15.75">
       <c r="B755">
         <v>3</v>
       </c>
@@ -48036,7 +48054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="2:25" ht="15">
+    <row r="756" spans="2:25" ht="15.75">
       <c r="B756">
         <v>3</v>
       </c>
@@ -48074,7 +48092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="2:25" ht="15">
+    <row r="757" spans="2:25" ht="15.75">
       <c r="B757">
         <v>3</v>
       </c>
@@ -48112,7 +48130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="2:25" ht="15">
+    <row r="758" spans="2:25" ht="15.75">
       <c r="B758">
         <v>3</v>
       </c>
@@ -48150,7 +48168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="2:25" ht="15">
+    <row r="759" spans="2:25" ht="15.75">
       <c r="B759">
         <v>3</v>
       </c>
@@ -48188,7 +48206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="2:25" ht="15">
+    <row r="760" spans="2:25" ht="15.75">
       <c r="B760">
         <v>3</v>
       </c>
@@ -48226,7 +48244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="2:25" ht="15">
+    <row r="761" spans="2:25" ht="15.75">
       <c r="B761">
         <v>3</v>
       </c>
@@ -48264,7 +48282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="2:25" ht="15">
+    <row r="762" spans="2:25" ht="15.75">
       <c r="B762">
         <v>3</v>
       </c>
@@ -48302,7 +48320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="2:25" ht="15">
+    <row r="763" spans="2:25" ht="15.75">
       <c r="B763">
         <v>3</v>
       </c>
@@ -48340,7 +48358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="2:25" ht="15">
+    <row r="764" spans="2:25" ht="15.75">
       <c r="B764">
         <v>3</v>
       </c>
@@ -48378,7 +48396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="2:25" ht="15">
+    <row r="765" spans="2:25" ht="15.75">
       <c r="B765">
         <v>3</v>
       </c>
@@ -48416,7 +48434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="2:25" ht="15">
+    <row r="766" spans="2:25" ht="15.75">
       <c r="B766">
         <v>3</v>
       </c>
@@ -48454,7 +48472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="2:25" ht="15">
+    <row r="767" spans="2:25" ht="15.75">
       <c r="B767">
         <v>3</v>
       </c>
@@ -48492,7 +48510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="2:25" ht="15">
+    <row r="768" spans="2:25" ht="15.75">
       <c r="B768">
         <v>3</v>
       </c>
@@ -48530,7 +48548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="2:25" ht="15">
+    <row r="769" spans="2:25" ht="15.75">
       <c r="B769">
         <v>3</v>
       </c>
@@ -48568,7 +48586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="2:25" ht="15">
+    <row r="770" spans="2:25" ht="15.75">
       <c r="B770">
         <v>3</v>
       </c>
@@ -48606,7 +48624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="2:25" ht="15">
+    <row r="771" spans="2:25" ht="15.75">
       <c r="B771">
         <v>3</v>
       </c>
@@ -48644,7 +48662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="2:25" ht="15">
+    <row r="772" spans="2:25" ht="15.75">
       <c r="B772">
         <v>3</v>
       </c>
@@ -48682,7 +48700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="2:25" ht="15">
+    <row r="773" spans="2:25" ht="15.75">
       <c r="B773">
         <v>3</v>
       </c>
@@ -48720,7 +48738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="2:25" ht="15">
+    <row r="774" spans="2:25" ht="15.75">
       <c r="B774">
         <v>3</v>
       </c>
@@ -48758,7 +48776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="2:25" ht="15">
+    <row r="775" spans="2:25" ht="15.75">
       <c r="B775">
         <v>3</v>
       </c>
@@ -48796,7 +48814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="2:25" ht="15">
+    <row r="776" spans="2:25" ht="15.75">
       <c r="B776">
         <v>3</v>
       </c>
@@ -48834,7 +48852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="2:25" ht="15">
+    <row r="777" spans="2:25" ht="15.75">
       <c r="B777">
         <v>3</v>
       </c>
@@ -48872,7 +48890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="2:25" ht="15">
+    <row r="778" spans="2:25" ht="15.75">
       <c r="B778">
         <v>3</v>
       </c>
@@ -48911,7 +48929,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y778"/>
+  <autoFilter ref="A1:Y778" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -48922,39 +48940,39 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18">
+    <row r="1" spans="1:21" ht="18.75">
       <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
@@ -49031,26 +49049,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:11" ht="18.75">
       <c r="A1" s="76" t="s">
         <v>7</v>
       </c>
@@ -49283,24 +49301,24 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
-    <col min="3" max="3" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
@@ -49412,28 +49430,28 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.1640625" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18">
+    <row r="1" spans="1:10" ht="18.75">
       <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
@@ -49496,7 +49514,7 @@
       <c r="B3" s="6">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="7">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -49522,7 +49540,7 @@
       <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>2</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -49546,7 +49564,7 @@
       <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -49570,7 +49588,7 @@
       <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -49587,7 +49605,7 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="28">
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" s="6">
         <v>0</v>
       </c>
@@ -49611,7 +49629,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="28">
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" s="148">
         <v>-1</v>
       </c>
@@ -49671,29 +49689,29 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:11" ht="18.75">
       <c r="A1" s="144" t="s">
         <v>7</v>
       </c>
@@ -49733,10 +49751,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="C2" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -49753,10 +49771,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="C3" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -49773,10 +49791,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="C4" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -49793,10 +49811,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="C5" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -49813,10 +49831,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="C6" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -49840,30 +49858,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -49912,16 +49930,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="18">
+    <row r="1" spans="1:17" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -49985,27 +50003,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -50731,7 +50749,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="30">
       <c r="A43" s="52">
         <v>42</v>
       </c>
@@ -50748,7 +50766,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="30">
       <c r="A44" s="52">
         <v>43</v>
       </c>
@@ -50930,26 +50948,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
@@ -50986,27 +51004,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
@@ -51046,36 +51064,36 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18">
+    <row r="1" spans="1:18" ht="18.75">
       <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
@@ -51171,36 +51189,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18">
+    <row r="1" spans="1:18" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
@@ -51267,22 +51285,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:20" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>7</v>
       </c>

--- a/db/excel/sqlite-inovation-manager-ver-7.xlsx
+++ b/db/excel/sqlite-inovation-manager-ver-7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieu\Desktop\NODEJS\m-inovation\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABE362D-3DE4-4A2F-B3AF-5A8E98230D4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1DCDB2-E760-48E6-ACC7-2BC265097371}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="500" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7745" uniqueCount="3750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7750" uniqueCount="3752">
   <si>
     <t>table_name</t>
   </si>
@@ -11297,6 +11297,12 @@
   </si>
   <si>
     <t>default 1, UNIQUE(idea_id, review_id), FOREIGN KEY (idea_id) REFERENCES ideas(id),  FOREIGN KEY (review_id) REFERENCES ideas_reviews(id),  FOREIGN KEY (user_id) REFERENCES users(id)</t>
+  </si>
+  <si>
+    <t>ajax_default</t>
+  </si>
+  <si>
+    <t>Thông tin mặc định để ghi đánh giá ý tưởng gồm {value_prize, description}</t>
   </si>
 </sst>
 </file>
@@ -12908,10 +12914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK265"/>
+  <dimension ref="A1:AMK266"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView topLeftCell="A210" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -18267,59 +18273,54 @@
         <v>407</v>
       </c>
       <c r="B224" s="67" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C224" s="92" t="s">
+        <v>3751</v>
+      </c>
+      <c r="D224" s="130" t="s">
+        <v>437</v>
+      </c>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+    </row>
+    <row r="225" spans="1:7" ht="36" customHeight="1">
+      <c r="A225" s="107" t="s">
+        <v>407</v>
+      </c>
+      <c r="B225" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C224" s="92" t="s">
+      <c r="C225" s="92" t="s">
         <v>453</v>
       </c>
-      <c r="D224" s="130" t="s">
+      <c r="D225" s="130" t="s">
         <v>438</v>
-      </c>
-      <c r="F224" s="6"/>
-      <c r="G224" s="6">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="54.95" customHeight="1">
-      <c r="A225" s="132" t="s">
-        <v>407</v>
-      </c>
-      <c r="B225" s="133" t="s">
-        <v>14</v>
-      </c>
-      <c r="C225" s="134" t="s">
-        <v>497</v>
-      </c>
-      <c r="D225" s="135" t="s">
-        <v>438</v>
-      </c>
-      <c r="E225" s="136" t="s">
-        <v>464</v>
       </c>
       <c r="F225" s="6"/>
       <c r="G225" s="6">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="143" t="s">
-        <v>502</v>
-      </c>
-      <c r="B226" s="144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C226" s="99" t="s">
-        <v>503</v>
-      </c>
-      <c r="D226" s="139" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="54.95" customHeight="1">
+      <c r="A226" s="132" t="s">
+        <v>407</v>
+      </c>
+      <c r="B226" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="134" t="s">
+        <v>497</v>
+      </c>
+      <c r="D226" s="135" t="s">
         <v>438</v>
       </c>
-      <c r="E226" s="17" t="s">
-        <v>449</v>
+      <c r="E226" s="136" t="s">
+        <v>464</v>
       </c>
       <c r="F226" s="6"/>
       <c r="G226" s="6">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -18327,18 +18328,20 @@
         <v>502</v>
       </c>
       <c r="B227" s="144" t="s">
-        <v>521</v>
+        <v>7</v>
       </c>
       <c r="C227" s="99" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D227" s="139" t="s">
-        <v>437</v>
-      </c>
-      <c r="E227" s="6"/>
+        <v>438</v>
+      </c>
+      <c r="E227" s="17" t="s">
+        <v>449</v>
+      </c>
       <c r="F227" s="6"/>
       <c r="G227" s="6">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -18346,10 +18349,10 @@
         <v>502</v>
       </c>
       <c r="B228" s="144" t="s">
-        <v>2</v>
+        <v>521</v>
       </c>
       <c r="C228" s="99" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D228" s="139" t="s">
         <v>437</v>
@@ -18357,7 +18360,7 @@
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="6">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -18365,18 +18368,18 @@
         <v>502</v>
       </c>
       <c r="B229" s="144" t="s">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="C229" s="99" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D229" s="139" t="s">
-        <v>512</v>
+        <v>437</v>
       </c>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="6">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -18384,10 +18387,10 @@
         <v>502</v>
       </c>
       <c r="B230" s="144" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C230" s="99" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D230" s="139" t="s">
         <v>512</v>
@@ -18395,7 +18398,7 @@
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="6">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -18403,10 +18406,10 @@
         <v>502</v>
       </c>
       <c r="B231" s="144" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C231" s="99" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D231" s="139" t="s">
         <v>512</v>
@@ -18414,7 +18417,7 @@
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="6">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -18422,18 +18425,18 @@
         <v>502</v>
       </c>
       <c r="B232" s="144" t="s">
-        <v>17</v>
+        <v>513</v>
       </c>
       <c r="C232" s="99" t="s">
-        <v>77</v>
+        <v>514</v>
       </c>
       <c r="D232" s="139" t="s">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="6">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -18441,10 +18444,10 @@
         <v>502</v>
       </c>
       <c r="B233" s="144" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="C233" s="99" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="D233" s="139" t="s">
         <v>438</v>
@@ -18452,7 +18455,7 @@
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="6">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -18460,10 +18463,10 @@
         <v>502</v>
       </c>
       <c r="B234" s="144" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="C234" s="99" t="s">
-        <v>506</v>
+        <v>189</v>
       </c>
       <c r="D234" s="139" t="s">
         <v>438</v>
@@ -18471,18 +18474,18 @@
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="6">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="38.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" s="143" t="s">
         <v>502</v>
       </c>
-      <c r="B235" s="140" t="s">
-        <v>6</v>
+      <c r="B235" s="144" t="s">
+        <v>16</v>
       </c>
       <c r="C235" s="99" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="D235" s="139" t="s">
         <v>438</v>
@@ -18490,47 +18493,47 @@
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="6">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="38.25">
       <c r="A236" s="143" t="s">
         <v>502</v>
       </c>
-      <c r="B236" s="141" t="s">
-        <v>14</v>
-      </c>
-      <c r="C236" s="142" t="s">
-        <v>524</v>
+      <c r="B236" s="140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" s="99" t="s">
+        <v>525</v>
       </c>
       <c r="D236" s="139" t="s">
         <v>438</v>
       </c>
-      <c r="E236" s="6" t="s">
-        <v>68</v>
-      </c>
+      <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="6">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="107" t="s">
-        <v>501</v>
-      </c>
-      <c r="B237" s="67" t="s">
-        <v>477</v>
-      </c>
-      <c r="C237" s="92" t="s">
-        <v>516</v>
-      </c>
-      <c r="D237" s="130" t="s">
+      <c r="A237" s="143" t="s">
+        <v>502</v>
+      </c>
+      <c r="B237" s="141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="142" t="s">
+        <v>524</v>
+      </c>
+      <c r="D237" s="139" t="s">
         <v>438</v>
       </c>
-      <c r="E237" s="6"/>
+      <c r="E237" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="F237" s="6"/>
       <c r="G237" s="6">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -18538,10 +18541,10 @@
         <v>501</v>
       </c>
       <c r="B238" s="67" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="C238" s="92" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D238" s="130" t="s">
         <v>438</v>
@@ -18549,7 +18552,7 @@
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="6">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -18557,10 +18560,10 @@
         <v>501</v>
       </c>
       <c r="B239" s="67" t="s">
-        <v>16</v>
+        <v>507</v>
       </c>
       <c r="C239" s="92" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D239" s="130" t="s">
         <v>438</v>
@@ -18568,7 +18571,7 @@
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="6">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -18576,18 +18579,18 @@
         <v>501</v>
       </c>
       <c r="B240" s="67" t="s">
-        <v>515</v>
+        <v>16</v>
       </c>
       <c r="C240" s="92" t="s">
-        <v>519</v>
-      </c>
-      <c r="D240" s="139" t="s">
-        <v>512</v>
+        <v>518</v>
+      </c>
+      <c r="D240" s="130" t="s">
+        <v>438</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="6">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -18595,10 +18598,10 @@
         <v>501</v>
       </c>
       <c r="B241" s="67" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C241" s="92" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D241" s="139" t="s">
         <v>512</v>
@@ -18606,7 +18609,7 @@
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="6">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -18614,60 +18617,58 @@
         <v>501</v>
       </c>
       <c r="B242" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C242" s="99" t="s">
-        <v>77</v>
+        <v>513</v>
+      </c>
+      <c r="C242" s="92" t="s">
+        <v>520</v>
       </c>
       <c r="D242" s="139" t="s">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" s="6">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="87.75" customHeight="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" s="107" t="s">
         <v>501</v>
       </c>
       <c r="B243" s="67" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="C243" s="99" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="D243" s="139" t="s">
         <v>438</v>
       </c>
-      <c r="E243" s="15" t="s">
-        <v>3730</v>
-      </c>
+      <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="6">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244" s="143" t="s">
-        <v>527</v>
-      </c>
-      <c r="B244" s="144" t="s">
-        <v>7</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="87.75" customHeight="1">
+      <c r="A244" s="107" t="s">
+        <v>501</v>
+      </c>
+      <c r="B244" s="67" t="s">
+        <v>109</v>
       </c>
       <c r="C244" s="99" t="s">
-        <v>526</v>
+        <v>189</v>
       </c>
       <c r="D244" s="139" t="s">
         <v>438</v>
       </c>
-      <c r="E244" s="17" t="s">
-        <v>449</v>
+      <c r="E244" s="15" t="s">
+        <v>3730</v>
       </c>
       <c r="F244" s="6"/>
       <c r="G244" s="6">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -18675,18 +18676,20 @@
         <v>527</v>
       </c>
       <c r="B245" s="144" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C245" s="99" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D245" s="139" t="s">
         <v>438</v>
       </c>
-      <c r="E245" s="6"/>
+      <c r="E245" s="17" t="s">
+        <v>449</v>
+      </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -18694,10 +18697,10 @@
         <v>527</v>
       </c>
       <c r="B246" s="144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C246" s="99" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D246" s="139" t="s">
         <v>438</v>
@@ -18705,7 +18708,7 @@
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -18713,20 +18716,18 @@
         <v>527</v>
       </c>
       <c r="B247" s="144" t="s">
-        <v>530</v>
+        <v>17</v>
       </c>
       <c r="C247" s="99" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D247" s="139" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E247" s="6"/>
-      <c r="F247" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="F247" s="6"/>
       <c r="G247" s="6">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -18734,20 +18735,20 @@
         <v>527</v>
       </c>
       <c r="B248" s="144" t="s">
-        <v>11</v>
+        <v>530</v>
       </c>
       <c r="C248" s="99" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D248" s="139" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E248" s="6"/>
       <c r="F248" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G248" s="6">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -18755,69 +18756,71 @@
         <v>527</v>
       </c>
       <c r="B249" s="144" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C249" s="99" t="s">
-        <v>3728</v>
+        <v>532</v>
       </c>
       <c r="D249" s="139" t="s">
         <v>438</v>
       </c>
       <c r="E249" s="6"/>
-      <c r="F249" s="6"/>
+      <c r="F249" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="G249" s="6">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="143" t="s">
+        <v>527</v>
+      </c>
+      <c r="B250" s="144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="99" t="s">
+        <v>3728</v>
+      </c>
+      <c r="D250" s="139" t="s">
+        <v>438</v>
+      </c>
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6">
         <v>246</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="38.25">
-      <c r="A250" s="157" t="s">
-        <v>3711</v>
-      </c>
-      <c r="B250" s="152" t="s">
-        <v>7</v>
-      </c>
-      <c r="C250" s="153" t="s">
-        <v>3718</v>
-      </c>
-      <c r="D250" s="130" t="s">
-        <v>438</v>
-      </c>
-      <c r="E250" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="F250" s="155"/>
-      <c r="G250" s="6">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" ht="38.25">
       <c r="A251" s="157" t="s">
         <v>3711</v>
       </c>
       <c r="B251" s="152" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C251" s="153" t="s">
-        <v>3716</v>
-      </c>
-      <c r="D251" s="154" t="s">
-        <v>437</v>
-      </c>
-      <c r="E251" s="155"/>
+        <v>3718</v>
+      </c>
+      <c r="D251" s="130" t="s">
+        <v>438</v>
+      </c>
+      <c r="E251" s="17" t="s">
+        <v>449</v>
+      </c>
       <c r="F251" s="155"/>
       <c r="G251" s="6">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="75.75">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="157" t="s">
         <v>3711</v>
       </c>
       <c r="B252" s="152" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C252" s="153" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="D252" s="154" t="s">
         <v>437</v>
@@ -18825,130 +18828,130 @@
       <c r="E252" s="155"/>
       <c r="F252" s="155"/>
       <c r="G252" s="6">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="38.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="75.75">
       <c r="A253" s="157" t="s">
         <v>3711</v>
       </c>
       <c r="B253" s="152" t="s">
-        <v>370</v>
-      </c>
-      <c r="C253" s="100" t="s">
-        <v>3715</v>
-      </c>
-      <c r="D253" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C253" s="153" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D253" s="154" t="s">
         <v>437</v>
       </c>
       <c r="E253" s="155"/>
       <c r="F253" s="155"/>
       <c r="G253" s="6">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="38.25">
       <c r="A254" s="157" t="s">
         <v>3711</v>
       </c>
       <c r="B254" s="152" t="s">
-        <v>3743</v>
+        <v>370</v>
       </c>
       <c r="C254" s="100" t="s">
-        <v>3744</v>
+        <v>3715</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E254" s="155"/>
       <c r="F254" s="155"/>
-      <c r="G254" s="6"/>
+      <c r="G254" s="6">
+        <v>250</v>
+      </c>
     </row>
     <row r="255" spans="1:7">
       <c r="A255" s="157" t="s">
         <v>3711</v>
       </c>
       <c r="B255" s="152" t="s">
-        <v>17</v>
-      </c>
-      <c r="C255" s="153" t="s">
-        <v>3714</v>
-      </c>
-      <c r="D255" s="154" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C255" s="100" t="s">
+        <v>3744</v>
+      </c>
+      <c r="D255" s="4" t="s">
         <v>438</v>
       </c>
       <c r="E255" s="155"/>
       <c r="F255" s="155"/>
-      <c r="G255" s="6">
-        <v>251</v>
-      </c>
+      <c r="G255" s="6"/>
     </row>
     <row r="256" spans="1:7">
       <c r="A256" s="157" t="s">
         <v>3711</v>
       </c>
       <c r="B256" s="152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C256" s="153" t="s">
-        <v>3729</v>
+        <v>3714</v>
       </c>
       <c r="D256" s="154" t="s">
         <v>438</v>
       </c>
       <c r="E256" s="155"/>
       <c r="F256" s="155"/>
-      <c r="G256" s="6"/>
-    </row>
-    <row r="257" spans="1:7" ht="38.25">
+      <c r="G256" s="6">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" s="157" t="s">
         <v>3711</v>
       </c>
       <c r="B257" s="152" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C257" s="153" t="s">
-        <v>3713</v>
+        <v>3729</v>
       </c>
       <c r="D257" s="154" t="s">
         <v>438</v>
       </c>
-      <c r="E257" s="155" t="s">
+      <c r="E257" s="155"/>
+      <c r="F257" s="155"/>
+      <c r="G257" s="6"/>
+    </row>
+    <row r="258" spans="1:7" ht="38.25">
+      <c r="A258" s="157" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B258" s="152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258" s="153" t="s">
+        <v>3713</v>
+      </c>
+      <c r="D258" s="154" t="s">
+        <v>438</v>
+      </c>
+      <c r="E258" s="155" t="s">
         <v>3731</v>
       </c>
-      <c r="F257" s="155"/>
-      <c r="G257" s="6">
+      <c r="F258" s="155"/>
+      <c r="G258" s="6">
         <v>252</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="158" t="s">
-        <v>3710</v>
-      </c>
-      <c r="B258" s="159" t="s">
-        <v>477</v>
-      </c>
-      <c r="C258" s="150" t="s">
-        <v>3732</v>
-      </c>
-      <c r="D258" s="151" t="s">
-        <v>438</v>
-      </c>
-      <c r="E258" s="156"/>
-      <c r="F258" s="156"/>
-      <c r="G258" s="6">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="57">
+    <row r="259" spans="1:7">
       <c r="A259" s="158" t="s">
         <v>3710</v>
       </c>
       <c r="B259" s="159" t="s">
-        <v>3712</v>
+        <v>477</v>
       </c>
       <c r="C259" s="150" t="s">
-        <v>3722</v>
+        <v>3732</v>
       </c>
       <c r="D259" s="151" t="s">
         <v>438</v>
@@ -18956,91 +18959,94 @@
       <c r="E259" s="156"/>
       <c r="F259" s="156"/>
       <c r="G259" s="6">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="38.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="57">
       <c r="A260" s="158" t="s">
         <v>3710</v>
       </c>
-      <c r="B260" s="161" t="s">
-        <v>3721</v>
+      <c r="B260" s="159" t="s">
+        <v>3712</v>
       </c>
       <c r="C260" s="150" t="s">
-        <v>3719</v>
+        <v>3722</v>
       </c>
       <c r="D260" s="151" t="s">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="E260" s="156"/>
       <c r="F260" s="156"/>
       <c r="G260" s="6">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="38.25">
       <c r="A261" s="158" t="s">
         <v>3710</v>
       </c>
-      <c r="B261" s="159" t="s">
-        <v>2</v>
+      <c r="B261" s="161" t="s">
+        <v>3721</v>
       </c>
       <c r="C261" s="150" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="D261" s="151" t="s">
-        <v>437</v>
+        <v>512</v>
       </c>
       <c r="E261" s="156"/>
       <c r="F261" s="156"/>
       <c r="G261" s="6">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="57">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="38.25">
       <c r="A262" s="158" t="s">
         <v>3710</v>
       </c>
       <c r="B262" s="159" t="s">
-        <v>3724</v>
+        <v>2</v>
       </c>
       <c r="C262" s="150" t="s">
-        <v>3723</v>
+        <v>3720</v>
       </c>
       <c r="D262" s="151" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E262" s="156"/>
       <c r="F262" s="156"/>
       <c r="G262" s="6">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="57">
       <c r="A263" s="158" t="s">
         <v>3710</v>
       </c>
       <c r="B263" s="159" t="s">
-        <v>17</v>
+        <v>3724</v>
       </c>
       <c r="C263" s="150" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
       <c r="D263" s="151" t="s">
         <v>438</v>
       </c>
-      <c r="E263" s="6"/>
-      <c r="F263" s="6"/>
+      <c r="E263" s="156"/>
+      <c r="F263" s="156"/>
+      <c r="G263" s="6">
+        <v>257</v>
+      </c>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="158" t="s">
         <v>3710</v>
       </c>
       <c r="B264" s="159" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C264" s="150" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="D264" s="151" t="s">
         <v>438</v>
@@ -19048,26 +19054,42 @@
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
     </row>
-    <row r="265" spans="1:7" ht="69.75" customHeight="1">
+    <row r="265" spans="1:7">
       <c r="A265" s="158" t="s">
         <v>3710</v>
       </c>
       <c r="B265" s="159" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C265" s="150" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="D265" s="151" t="s">
         <v>438</v>
       </c>
-      <c r="E265" s="15" t="s">
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+    </row>
+    <row r="266" spans="1:7" ht="69.75" customHeight="1">
+      <c r="A266" s="158" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B266" s="159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C266" s="150" t="s">
+        <v>3727</v>
+      </c>
+      <c r="D266" s="151" t="s">
+        <v>438</v>
+      </c>
+      <c r="E266" s="15" t="s">
         <v>3749</v>
       </c>
-      <c r="F265" s="6"/>
+      <c r="F266" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G225" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G226" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
@@ -49431,10 +49453,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -49445,13 +49467,14 @@
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:11" ht="18.75">
       <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
@@ -49470,20 +49493,23 @@
       <c r="F1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="67" t="s">
+        <v>3750</v>
+      </c>
+      <c r="H1" s="76" t="s">
         <v>486</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="I1" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="J1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="138" t="s">
+      <c r="K1" s="138" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -49500,14 +49526,15 @@
       <c r="F2" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="6">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6">
         <v>99</v>
       </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -49526,14 +49553,15 @@
       <c r="F3" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -49550,14 +49578,15 @@
       <c r="F4" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6">
         <v>2</v>
       </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -49574,14 +49603,15 @@
       <c r="F5" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="6">
-        <v>3</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6">
+        <v>3</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -49598,14 +49628,15 @@
       <c r="F6" s="15" t="s">
         <v>3706</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="6">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="30">
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="6">
         <v>0</v>
       </c>
@@ -49622,14 +49653,15 @@
       <c r="F7" s="15" t="s">
         <v>3705</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="6">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6">
         <v>995</v>
       </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="30">
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="30">
       <c r="A8" s="148">
         <v>-1</v>
       </c>
@@ -49646,14 +49678,15 @@
       <c r="F8" s="149" t="s">
         <v>3704</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="149"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="148">
+      <c r="I8" s="6"/>
+      <c r="J8" s="148">
         <v>996</v>
       </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="148">
         <v>-2</v>
       </c>
@@ -49670,12 +49703,13 @@
       <c r="F9" s="149" t="s">
         <v>3703</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="149"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="148">
+      <c r="I9" s="6"/>
+      <c r="J9" s="148">
         <v>997</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
